--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="BFR" sheetId="4" r:id="rId1"/>
+    <sheet name="SAT" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Alphas</t>
   </si>
@@ -62,9 +63,6 @@
     <t>HeatShield</t>
   </si>
   <si>
-    <t xml:space="preserve">Attitude control </t>
-  </si>
-  <si>
     <t>Steel</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
     <t>Daily Profit</t>
   </si>
   <si>
-    <t>Optimal Building level</t>
-  </si>
-  <si>
     <t>BFR-OB</t>
   </si>
   <si>
@@ -168,16 +163,83 @@
   </si>
   <si>
     <t>Optimal Daily Profit</t>
+  </si>
+  <si>
+    <t>Attitude controller</t>
+  </si>
+  <si>
+    <t>amount of self produced required products</t>
+  </si>
+  <si>
+    <t>Total Unitary costs</t>
+  </si>
+  <si>
+    <t>Total Unitary profit</t>
+  </si>
+  <si>
+    <t>COLOR CODES</t>
+  </si>
+  <si>
+    <t>Partial results</t>
+  </si>
+  <si>
+    <t>Final results</t>
+  </si>
+  <si>
+    <t>Change constantly (manually)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change rarely (manually) </t>
+  </si>
+  <si>
+    <t>Total Unitary admin costs</t>
+  </si>
+  <si>
+    <t>(Bl*) Optimal Building level</t>
+  </si>
+  <si>
+    <t>Optimum Building levels</t>
+  </si>
+  <si>
+    <t>Flight computer</t>
+  </si>
+  <si>
+    <t>Ion Drive</t>
+  </si>
+  <si>
+    <t>Attitude control</t>
+  </si>
+  <si>
+    <t>Satellite</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Golden bars</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Sat-HGEC</t>
+  </si>
+  <si>
+    <t>Ion-HGEC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +248,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -237,21 +307,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -403,52 +458,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
@@ -470,16 +543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>324337</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19124</xdr:rowOff>
+      <xdr:colOff>200512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -496,7 +569,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857625" y="5200650"/>
+          <a:off x="4962525" y="7239000"/>
           <a:ext cx="3486637" cy="533474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -508,16 +581,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552810</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>69</xdr:rowOff>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,7 +607,88 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3895725" y="5791200"/>
+          <a:off x="4991100" y="7743825"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="7048500"/>
+          <a:ext cx="3486637" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="7553325"/>
           <a:ext cx="2581635" cy="495369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -810,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M44"/>
+  <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,125 +980,144 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="30">
+        <v>2840</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9475</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5150</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="8">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="8">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" s="10">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -952,16 +1125,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -970,9 +1143,9 @@
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -982,7 +1155,6 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <f>B16*1</f>
         <v>1</v>
       </c>
       <c r="E16" s="5">
@@ -990,6 +1162,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="5">
+        <f>D16*7</f>
         <v>7</v>
       </c>
       <c r="G16" s="5"/>
@@ -998,58 +1171,61 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="33">
         <v>0.21</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="33">
         <v>1.5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="33">
         <v>0.3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="33">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="33">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="31">
         <v>3600</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="31">
         <v>390</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="31">
         <v>1950</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="31">
         <v>2220</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="31">
         <v>2220</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1060,19 +1236,19 @@
       </c>
       <c r="C19" s="9">
         <f>40*B4+16*B5</f>
-        <v>1360</v>
+        <v>265200</v>
       </c>
       <c r="D19" s="9">
         <f>2*B6+10*B7+4*B8+6*B5</f>
-        <v>4208</v>
+        <v>77470</v>
       </c>
       <c r="E19" s="9">
         <f>20*B9+8*B10+10*B11</f>
-        <v>1810</v>
+        <v>6959</v>
       </c>
       <c r="F19" s="9">
-        <f>20*C9+8*C10+10*C11</f>
-        <v>0</v>
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1083,16 +1259,16 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>67108</v>
+        <v>627989</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
@@ -1102,10 +1278,10 @@
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49">
         <f>B16/B17</f>
         <v>4.7619047619047619</v>
       </c>
@@ -1132,152 +1308,733 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="23">
-        <f>B24/$B$26</f>
+      <c r="B25" s="50">
+        <f>B24/$B$27</f>
         <v>2.4389411093279741E-2</v>
       </c>
-      <c r="C25" s="23">
-        <f t="shared" ref="C25:L25" si="0">C24/$B$26</f>
+      <c r="C25" s="45">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>7.1704868614242431E-4</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="45">
         <f t="shared" si="0"/>
         <v>3.5852434307121219E-3</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="45">
         <f t="shared" si="0"/>
         <v>0.9328949743179501</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="45">
         <f t="shared" si="0"/>
         <v>3.8413322471915597E-2</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="25">
+      <c r="A26" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="51">
+        <f>B25*$B$41</f>
+        <v>1.8672145328729672</v>
+      </c>
+      <c r="C26" s="52">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
+        <v>5.4896107266465231E-2</v>
+      </c>
+      <c r="D26" s="52">
+        <f t="shared" si="1"/>
+        <v>0.27448053633232616</v>
+      </c>
+      <c r="E26" s="52">
+        <f t="shared" si="1"/>
+        <v>71.420955882390999</v>
+      </c>
+      <c r="F26" s="52">
+        <f t="shared" si="1"/>
+        <v>2.9408628892749236</v>
+      </c>
+      <c r="G26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="47">
         <f>SUM(B24:L24)</f>
         <v>195.2447619047619</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="28">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
         <f>B25</f>
         <v>2.4389411093279741E-2</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="44">
+        <v>0.04</v>
+      </c>
+    </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="41">
+        <f>B38/24/B28/B31</f>
+        <v>19623.307692307717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="42">
+        <f>B32-B35</f>
+        <v>760376.69230769225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="35">
+        <f>B36-B21-B20</f>
+        <v>35427.692307692254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
+        <v>1171615.048041513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="43">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>76.55840994813768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="27">
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
+        <v>1317063.6136552137</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="30">
+        <v>4480</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1490</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>6402.57</v>
+      </c>
+      <c r="C18" s="31">
+        <v>206.61</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1109.5899999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <v>206.61</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <f>2*B6+4*B4</f>
+        <v>20900</v>
+      </c>
+      <c r="C19" s="9">
+        <f>4*B7+3*B8+0.0625*B9</f>
+        <v>459.7</v>
+      </c>
+      <c r="D19" s="9">
+        <f>30*B10+15*B8</f>
+        <v>2673</v>
+      </c>
+      <c r="E19" s="9">
+        <f>4*B7+3*B8+0.0625*B9</f>
+        <v>459.7</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>30928.199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>10817.919999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="50">
+        <f>B24/$B$27</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="45">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="51">
+        <f>B25*$B$41</f>
+        <v>-482.47670531858256</v>
+      </c>
+      <c r="C26" s="52">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="47">
+        <f>SUM(B24:L24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="44">
         <v>0.04</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="30">
-        <v>0.3</v>
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="41" t="e">
+        <f>B38/24/B28/B31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="42" t="e">
+        <f>B32-B35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="35" t="e">
+        <f>B36-B21-B20</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="31">
-        <f>(B29-B20-(B30*(1-B35)/170+1)*B21/(1+B34))*B30*B31*24</f>
-        <v>-2508658.9980030893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="32"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="32"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="33">
-        <f>((B29-B20)*(1+B34)/B21-1)*170/2/(1-B35)</f>
-        <v>90.730386610089582</v>
+      <c r="A38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="43">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>-482.47670531858256</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="32"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="32"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="34">
-        <f>(B29-B20-((B41*(1-B35)/170+1)*B21/(1+B34)))*B41*B31*24</f>
-        <v>1849807.196659717</v>
+      <c r="A42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="27">
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
+        <v>239289413.98767176</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="BFR" sheetId="4" r:id="rId1"/>
-    <sheet name="SAT" sheetId="3" r:id="rId2"/>
+    <sheet name="HGEC" sheetId="5" r:id="rId2"/>
+    <sheet name="SAT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>Alphas</t>
   </si>
@@ -204,9 +205,6 @@
     <t>Flight computer</t>
   </si>
   <si>
-    <t>Ion Drive</t>
-  </si>
-  <si>
     <t>Attitude control</t>
   </si>
   <si>
@@ -228,7 +226,13 @@
     <t>Sat-HGEC</t>
   </si>
   <si>
-    <t>Ion-HGEC</t>
+    <t>Sat-Ion Drive</t>
+  </si>
+  <si>
+    <t>Sat-Ion-HGEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGEC </t>
   </si>
 </sst>
 </file>
@@ -295,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -446,6 +450,21 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -464,7 +483,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -519,6 +538,17 @@
     <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -621,6 +651,87 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="7239000"/>
+          <a:ext cx="3486637" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="7743825"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1522,10 +1633,301 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="30"/>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="57">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="58">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="60">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="61">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21">
+        <f>B16/B17</f>
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="46">
+        <f>B24/$B$27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="63">
+        <f>B25*$B$41</f>
+        <v>27240.476190476194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="42">
+        <f>SUM(B24:L24)</f>
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="64">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="41">
+        <f>B38/24/B28/B31</f>
+        <v>775084.61538461538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="42">
+        <f>B32-B35</f>
+        <v>4915.3846153846243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="35">
+        <f>B36-B21-B20</f>
+        <v>1315.3846153846243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
+        <v>1897407138.4615383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="43">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>27240.476190476194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="27">
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
+        <v>253839329670.32968</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1985,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8">
         <v>1490</v>
@@ -1595,7 +1997,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
         <v>7.4</v>
@@ -1603,7 +2005,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8">
         <v>14.2</v>
@@ -1611,7 +2013,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="8">
         <v>6200</v>
@@ -1619,7 +2021,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8">
         <v>82</v>
@@ -1672,13 +2074,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>67</v>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="BFR" sheetId="4" r:id="rId1"/>
-    <sheet name="HGEC" sheetId="5" r:id="rId2"/>
-    <sheet name="SAT" sheetId="3" r:id="rId3"/>
+    <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId1"/>
+    <sheet name="RE" sheetId="6" r:id="rId2"/>
+    <sheet name="HGEC" sheetId="5" r:id="rId3"/>
+    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="73">
   <si>
     <t>Alphas</t>
   </si>
@@ -233,6 +234,18 @@
   </si>
   <si>
     <t xml:space="preserve">HGEC </t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Required buildings to produce 1 end product in one hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Unitary costs (considering Admin costs) </t>
   </si>
 </sst>
 </file>
@@ -483,7 +496,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -549,6 +562,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -732,6 +748,87 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="7239000"/>
+          <a:ext cx="3486637" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="7743825"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1077,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,20 +1494,20 @@
         <v>4.7619047619047619</v>
       </c>
       <c r="C24" s="20">
-        <f>B17/C17*C16</f>
-        <v>0.13999999999999999</v>
+        <f>1/C17*C16</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D24" s="20">
-        <f>B17/D17*D16</f>
-        <v>0.7</v>
+        <f>1/D17*D16</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E24" s="20">
-        <f>C17/E17*E16</f>
-        <v>182.14285714285714</v>
+        <f>1/E17*E16</f>
+        <v>121.42857142857142</v>
       </c>
       <c r="F24" s="20">
-        <f>D17/F17*F16</f>
-        <v>7.5</v>
+        <f>1/F17*F16</f>
+        <v>25</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -1428,23 +1525,23 @@
       </c>
       <c r="B25" s="50">
         <f>B24/$B$27</f>
-        <v>2.4389411093279741E-2</v>
+        <v>3.0684258975145751E-2</v>
       </c>
       <c r="C25" s="45">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>7.1704868614242431E-4</v>
+        <v>4.2957962565204049E-3</v>
       </c>
       <c r="D25" s="45">
         <f t="shared" si="0"/>
-        <v>3.5852434307121219E-3</v>
+        <v>2.147898128260203E-2</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="0"/>
-        <v>0.9328949743179501</v>
+        <v>0.78244860386621662</v>
       </c>
       <c r="F25" s="45">
         <f t="shared" si="0"/>
-        <v>3.8413322471915597E-2</v>
+        <v>0.16109235961951521</v>
       </c>
       <c r="G25" s="45">
         <f t="shared" si="0"/>
@@ -1477,23 +1574,23 @@
       </c>
       <c r="B26" s="51">
         <f>B25*$B$41</f>
-        <v>1.8672145328729672</v>
+        <v>3.1484333667663003</v>
       </c>
       <c r="C26" s="52">
         <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>5.4896107266465231E-2</v>
+        <v>0.44078067134728199</v>
       </c>
       <c r="D26" s="52">
         <f t="shared" si="1"/>
-        <v>0.27448053633232616</v>
+        <v>2.2039033567364106</v>
       </c>
       <c r="E26" s="52">
         <f t="shared" si="1"/>
-        <v>71.420955882390999</v>
+        <v>80.28505085254065</v>
       </c>
       <c r="F26" s="52">
         <f t="shared" si="1"/>
-        <v>2.9408628892749236</v>
+        <v>16.529275175523075</v>
       </c>
       <c r="G26" s="52">
         <f t="shared" si="1"/>
@@ -1526,7 +1623,7 @@
       </c>
       <c r="B27" s="47">
         <f>SUM(B24:L24)</f>
-        <v>195.2447619047619</v>
+        <v>155.19047619047618</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1535,7 +1632,7 @@
       </c>
       <c r="B28" s="24">
         <f>B25</f>
-        <v>2.4389411093279741E-2</v>
+        <v>3.0684258975145751E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1543,18 +1640,19 @@
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>102</v>
-      </c>
+        <v>155.19</v>
+      </c>
+      <c r="E31" s="66"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="6">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
@@ -1562,66 +1660,70 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>B35*24</f>
+        <v>460898.97556561232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="41">
-        <f>B38/24/B28/B31</f>
-        <v>19623.307692307717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B32-B36</f>
+        <v>19204.123981900513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="42">
-        <f>B32-B35</f>
-        <v>760376.69230769225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>780795.87601809949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="35">
-        <f>B36-B21-B20</f>
-        <v>35427.692307692254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B36-B20-B21</f>
+        <v>55846.876018099487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
-        <v>1171615.048041513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>460897.5613312588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="43">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>76.55840994813768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102.60744342291372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
-        <v>1317063.6136552137</v>
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*B17*24</f>
+        <v>625046.45413239649</v>
       </c>
     </row>
   </sheetData>
@@ -1635,8 +1737,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30">
+        <v>10.9</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>890</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="57">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="58">
+        <v>2219.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="59">
+        <f>20*B4+8*B5+10*B6</f>
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="60">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="61">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>2219.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="21">
+        <f>B16/B17</f>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="46">
+        <f>B24/$B$27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="63">
+        <f>B25*$B$41</f>
+        <v>71.028264495475511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="42">
+        <f>SUM(B24:L24)</f>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="64">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="67"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B38/24/B28/B31</f>
+        <v>137.9096004524888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="65">
+        <f>B32-B35</f>
+        <v>10762.090399547511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="35">
+        <f>B36-B21-B20</f>
+        <v>1024.9003995475105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*24</f>
+        <v>284645.41533393686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="43">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>71.028264495475511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="27">
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*24</f>
+        <v>297880.41185193369</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,24 +2082,36 @@
       <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="30">
+        <v>7.4</v>
+      </c>
       <c r="E4" s="38" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14.4</v>
+      </c>
       <c r="E5" s="39" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6100</v>
+      </c>
       <c r="E6" s="36" t="s">
         <v>52</v>
       </c>
@@ -1745,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="57">
-        <v>0.21</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="58">
-        <v>3600</v>
+        <v>206.61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +2182,8 @@
         <v>5</v>
       </c>
       <c r="B19" s="59">
-        <v>0</v>
+        <f>4*B4+3*B5+0.0625*B6</f>
+        <v>454.05</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,7 +2192,7 @@
       </c>
       <c r="B20" s="60">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>0</v>
+        <v>454.05</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,7 +2201,7 @@
       </c>
       <c r="B21" s="61">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>3600</v>
+        <v>206.61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1790,7 +2212,7 @@
       </c>
       <c r="B24" s="21">
         <f>B16/B17</f>
-        <v>4.7619047619047619</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +2230,7 @@
       </c>
       <c r="B26" s="63">
         <f>B25*$B$41</f>
-        <v>27240.476190476194</v>
+        <v>90.025583051574046</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +2239,7 @@
       </c>
       <c r="B27" s="42">
         <f>SUM(B24:L24)</f>
-        <v>4.7619047619047619</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +2256,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +2264,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="6">
-        <v>780000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1865,18 +2287,18 @@
       <c r="A35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="17">
         <f>B38/24/B28/B31</f>
-        <v>775084.61538461538</v>
+        <v>120.49044343891399</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="65">
         <f>B32-B35</f>
-        <v>4915.3846153846243</v>
+        <v>679.50955656108601</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +2307,7 @@
       </c>
       <c r="B37" s="35">
         <f>B36-B21-B20</f>
-        <v>1315.3846153846243</v>
+        <v>18.84955656108599</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,8 +2315,8 @@
         <v>25</v>
       </c>
       <c r="B38" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
-        <v>1897407138.4615383</v>
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*24</f>
+        <v>289177.06425339356</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,7 +2325,7 @@
       </c>
       <c r="B41" s="43">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>27240.476190476194</v>
+        <v>90.025583051574046</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,8 +2333,8 @@
         <v>45</v>
       </c>
       <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
-        <v>253839329670.32968</v>
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*24</f>
+        <v>292771.00753430964</v>
       </c>
     </row>
   </sheetData>
@@ -1922,12 +2344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +2390,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="30">
-        <v>4480</v>
+        <v>4740</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>54</v>
@@ -1976,8 +2398,12 @@
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1520</v>
+      </c>
       <c r="E5" s="39" t="s">
         <v>51</v>
       </c>
@@ -1985,10 +2411,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8">
-        <v>1490</v>
+        <v>7.4</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>52</v>
@@ -1997,35 +2423,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8">
-        <v>7.4</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8">
-        <v>14.2</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
-        <v>6200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="8">
-        <v>82</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
@@ -2101,12 +2523,15 @@
         <v>1</v>
       </c>
       <c r="C16" s="5">
+        <f>8*B16</f>
         <v>8</v>
       </c>
       <c r="D16" s="5">
+        <f>1*B16</f>
         <v>1</v>
       </c>
       <c r="E16" s="5">
+        <f>D16*8</f>
         <v>8</v>
       </c>
       <c r="F16" s="5"/>
@@ -2173,19 +2598,19 @@
         <v>5</v>
       </c>
       <c r="B19" s="7">
-        <f>2*B6+4*B4</f>
-        <v>20900</v>
+        <f>4*B4+2*B5</f>
+        <v>22000</v>
       </c>
       <c r="C19" s="9">
-        <f>4*B7+3*B8+0.0625*B9</f>
+        <f>4*B6+3*B7+0.0625*B8</f>
         <v>459.7</v>
       </c>
       <c r="D19" s="9">
-        <f>30*B10+15*B8</f>
+        <f>30*B9+15*B7</f>
         <v>2673</v>
       </c>
       <c r="E19" s="9">
-        <f>4*B7+3*B8+0.0625*B9</f>
+        <f>4*B6+3*B7+0.0625*B8</f>
         <v>459.7</v>
       </c>
       <c r="F19" s="9"/>
@@ -2202,7 +2627,7 @@
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>30928.199999999997</v>
+        <v>32028.199999999997</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,6 +2638,8 @@
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>10817.919999999998</v>
       </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2221,11 +2648,21 @@
         <v>20</v>
       </c>
       <c r="B24" s="49">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+        <f>1/B17</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="C24" s="20">
+        <f>C16/C17</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="D24" s="20">
+        <f>D16/D17</f>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="E24" s="20">
+        <f>E16/E17</f>
+        <v>4.3478260869565215</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -2243,19 +2680,19 @@
       </c>
       <c r="B25" s="50">
         <f>B24/$B$27</f>
-        <v>1</v>
+        <v>0.46447890371438882</v>
       </c>
       <c r="C25" s="45">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>0</v>
+        <v>0.22214208438514246</v>
       </c>
       <c r="D25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.123692751532636E-2</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22214208438514246</v>
       </c>
       <c r="F25" s="45">
         <f t="shared" si="0"/>
@@ -2292,19 +2729,19 @@
       </c>
       <c r="B26" s="51">
         <f>B25*$B$41</f>
-        <v>-482.47670531858256</v>
+        <v>35.623679236006481</v>
       </c>
       <c r="C26" s="52">
         <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>0</v>
+        <v>17.037411808524837</v>
       </c>
       <c r="D26" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9975084213584147</v>
       </c>
       <c r="E26" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.037411808524837</v>
       </c>
       <c r="F26" s="52">
         <f t="shared" si="1"/>
@@ -2341,7 +2778,7 @@
       </c>
       <c r="B27" s="47">
         <f>SUM(B24:L24)</f>
-        <v>1</v>
+        <v>19.572275550536418</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2350,20 +2787,24 @@
       </c>
       <c r="B28" s="24">
         <f>B25</f>
-        <v>1</v>
+        <v>0.46447890371438882</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6">
+        <v>49000</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
@@ -2385,27 +2826,27 @@
       <c r="A35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="41" t="e">
+      <c r="B35" s="17">
         <f>B38/24/B28/B31</f>
-        <v>#DIV/0!</v>
+        <v>4899.5397285067929</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="42" t="e">
+      <c r="B36" s="65">
         <f>B32-B35</f>
-        <v>#DIV/0!</v>
+        <v>44100.460271493204</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="35" t="e">
+      <c r="B37" s="18">
         <f>B36-B21-B20</f>
-        <v>#DIV/0!</v>
+        <v>1254.340271493209</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2855,7 @@
       </c>
       <c r="B38" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
-        <v>0</v>
+        <v>2130085.9399266057</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,7 +2864,7 @@
       </c>
       <c r="B41" s="43">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>-482.47670531858256</v>
+        <v>76.696011274414559</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2873,7 @@
       </c>
       <c r="B42" s="27">
         <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
-        <v>239289413.98767176</v>
+        <v>2808551.1409290237</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId1"/>
@@ -590,44 +590,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200512</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4962525" y="7239000"/>
-          <a:ext cx="3486637" cy="533474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -646,7 +608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1174,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1700,7 @@
   <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +1973,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*24</f>
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
         <v>284645.41533393686</v>
       </c>
     </row>
@@ -2029,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*24</f>
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*B17*24</f>
         <v>297880.41185193369</v>
       </c>
     </row>
@@ -2045,7 +2007,7 @@
   <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,7 +2277,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*24</f>
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
         <v>289177.06425339356</v>
       </c>
     </row>
@@ -2333,7 +2295,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*24</f>
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*B17*24</f>
         <v>292771.00753430964</v>
       </c>
     </row>
@@ -2348,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2614,7 @@
         <v>9.0909090909090917</v>
       </c>
       <c r="C24" s="20">
-        <f>C16/C17</f>
+        <f>8/C17</f>
         <v>4.3478260869565215</v>
       </c>
       <c r="D24" s="20">
@@ -2729,19 +2691,19 @@
       </c>
       <c r="B26" s="51">
         <f>B25*$B$41</f>
-        <v>35.623679236006481</v>
+        <v>66.864612730536209</v>
       </c>
       <c r="C26" s="52">
         <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>17.037411808524837</v>
+        <v>31.978727827647752</v>
       </c>
       <c r="D26" s="52">
         <f t="shared" si="1"/>
-        <v>6.9975084213584147</v>
+        <v>13.134120357783896</v>
       </c>
       <c r="E26" s="52">
         <f t="shared" si="1"/>
-        <v>17.037411808524837</v>
+        <v>31.978727827647752</v>
       </c>
       <c r="F26" s="52">
         <f t="shared" si="1"/>
@@ -2795,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2803,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="6">
-        <v>49000</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2781,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2790,7 @@
       </c>
       <c r="B35" s="17">
         <f>B38/24/B28/B31</f>
-        <v>4899.5397285067929</v>
+        <v>637.7076289592768</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2799,7 @@
       </c>
       <c r="B36" s="65">
         <f>B32-B35</f>
-        <v>44100.460271493204</v>
+        <v>52362.292371040727</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2808,7 @@
       </c>
       <c r="B37" s="18">
         <f>B36-B21-B20</f>
-        <v>1254.340271493209</v>
+        <v>9516.1723710407314</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,8 +2816,8 @@
         <v>25</v>
       </c>
       <c r="B38" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*24</f>
-        <v>2130085.9399266057</v>
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*B28*24</f>
+        <v>924149.43001463811</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2826,7 @@
       </c>
       <c r="B41" s="43">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>76.696011274414559</v>
+        <v>143.9561887436156</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,8 +2834,8 @@
         <v>45</v>
       </c>
       <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*24</f>
-        <v>2808551.1409290237</v>
+        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*B28*24</f>
+        <v>932917.74906358926</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -2311,7 +2311,7 @@
   <dimension ref="A2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,19 +2691,19 @@
       </c>
       <c r="B26" s="51">
         <f>B25*$B$41</f>
-        <v>66.864612730536209</v>
+        <v>65.253702037686338</v>
       </c>
       <c r="C26" s="52">
         <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>31.978727827647752</v>
+        <v>31.208292278893463</v>
       </c>
       <c r="D26" s="52">
         <f t="shared" si="1"/>
-        <v>13.134120357783896</v>
+        <v>12.817691471688386</v>
       </c>
       <c r="E26" s="52">
         <f t="shared" si="1"/>
-        <v>31.978727827647752</v>
+        <v>31.208292278893463</v>
       </c>
       <c r="F26" s="52">
         <f t="shared" si="1"/>
@@ -2757,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="44">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="25">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B35" s="17">
         <f>B38/24/B28/B31</f>
-        <v>637.7076289592768</v>
+        <v>799.31766443100685</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B36" s="65">
         <f>B32-B35</f>
-        <v>52362.292371040727</v>
+        <v>52200.682335568992</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B37" s="18">
         <f>B36-B21-B20</f>
-        <v>9516.1723710407314</v>
+        <v>9354.5623355689968</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B38" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*B28*24</f>
-        <v>924149.43001463811</v>
+        <v>828666.14164763433</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B41" s="43">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>143.9561887436156</v>
+        <v>140.48797806716163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B42" s="27">
         <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*B28*24</f>
-        <v>932917.74906358926</v>
+        <v>935562.20226998033</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId1"/>
-    <sheet name="RE" sheetId="6" r:id="rId2"/>
-    <sheet name="HGEC" sheetId="5" r:id="rId3"/>
-    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId4"/>
+    <sheet name="BFR-OB-ST" sheetId="7" r:id="rId2"/>
+    <sheet name="RE" sheetId="6" r:id="rId3"/>
+    <sheet name="RE-HGEC" sheetId="8" r:id="rId4"/>
+    <sheet name="HGEC" sheetId="5" r:id="rId5"/>
+    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
   <si>
     <t>Alphas</t>
   </si>
@@ -245,7 +247,13 @@
     <t>Required buildings to produce 1 end product in one hour</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Unitary costs (considering Admin costs) </t>
+    <t>Rocket Engines</t>
+  </si>
+  <si>
+    <t>It's too expensive to buy Rocket engines :(</t>
+  </si>
+  <si>
+    <t>Total Units daily</t>
   </si>
 </sst>
 </file>
@@ -538,7 +546,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -565,6 +572,7 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -590,15 +598,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
+      <xdr:colOff>467085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,8 +623,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="7743825"/>
+          <a:off x="5038725" y="8058150"/>
           <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609415</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="7315200"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7620000"/>
+          <a:ext cx="3533333" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,15 +717,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200512</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190574</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -658,7 +742,126 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962525" y="7239000"/>
+          <a:off x="5038725" y="8058150"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609415</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="7315200"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7620000"/>
+          <a:ext cx="3533333" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152887</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7315200"/>
           <a:ext cx="3486637" cy="533474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -706,23 +909,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="6991350"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200512</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190574</xdr:rowOff>
+      <xdr:colOff>152887</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -739,8 +980,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962525" y="7239000"/>
+          <a:off x="5676900" y="7315200"/>
           <a:ext cx="3486637" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="7743825"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="6991350"/>
+          <a:ext cx="1476190" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,7 +1081,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -787,23 +1104,99 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="7000875"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7267575"/>
+          <a:ext cx="3533333" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200512</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190574</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>74</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -820,7 +1213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962525" y="7048500"/>
+          <a:off x="4962525" y="7258050"/>
           <a:ext cx="3486637" cy="533474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -830,6 +1223,87 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448035</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="7743825"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="6924675"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -851,7 +1325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -860,6 +1334,82 @@
         <a:xfrm>
           <a:off x="4991100" y="7553325"/>
           <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="7000875"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7267575"/>
+          <a:ext cx="3533333" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M42"/>
+  <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +2001,7 @@
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <f>B16/B17</f>
         <v>4.7619047619047619</v>
       </c>
@@ -1485,96 +2035,96 @@
       <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="49">
         <f>B24/$B$27</f>
         <v>3.0684258975145751E-2</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="44">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>4.2957962565204049E-3</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="44">
         <f t="shared" si="0"/>
         <v>2.147898128260203E-2</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <f t="shared" si="0"/>
         <v>0.78244860386621662</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <f t="shared" si="0"/>
         <v>0.16109235961951521</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="51">
-        <f>B25*$B$41</f>
-        <v>3.1484333667663003</v>
-      </c>
-      <c r="C26" s="52">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>0.44078067134728199</v>
-      </c>
-      <c r="D26" s="52">
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>4.4583865332092252</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$42</f>
+        <v>0.62417411464929151</v>
+      </c>
+      <c r="D26" s="51">
         <f t="shared" si="1"/>
-        <v>2.2039033567364106</v>
-      </c>
-      <c r="E26" s="52">
+        <v>3.1208705732464583</v>
+      </c>
+      <c r="E26" s="51">
         <f t="shared" si="1"/>
-        <v>80.28505085254065</v>
-      </c>
-      <c r="F26" s="52">
+        <v>113.68885659683524</v>
+      </c>
+      <c r="F26" s="51">
         <f t="shared" si="1"/>
-        <v>16.529275175523075</v>
-      </c>
-      <c r="G26" s="52">
+        <v>23.406529299348435</v>
+      </c>
+      <c r="G26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1583,7 +2133,7 @@
       <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <f>SUM(B24:L24)</f>
         <v>155.19047619047618</v>
       </c>
@@ -1604,88 +2154,93 @@
       <c r="B31" s="3">
         <v>155.19</v>
       </c>
-      <c r="E31" s="66"/>
+      <c r="E31" s="65"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>800000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="43">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="D34">
-        <f>B35*24</f>
-        <v>460898.97556561232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="41">
-        <f>B32-B36</f>
-        <v>19204.123981900513</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>42184.531586752273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>23.999926357778456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B37" s="64">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>780795.87601809949</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+        <v>757815.46841324773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="35">
-        <f>B36-B20-B21</f>
-        <v>55846.876018099487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>32866.468413247727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B39" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>460897.5613312588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+        <v>1012425.6515194352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>102.60744342291372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+        <v>145.29881711728865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*B17*24</f>
-        <v>625046.45413239649</v>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>1017139.2514666249</v>
       </c>
     </row>
   </sheetData>
@@ -1697,10 +2252,554 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2840</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9475</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B17*1</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="31">
+        <v>3600</v>
+      </c>
+      <c r="C19" s="31">
+        <v>390</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1950</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>40*B4+16*B5+34*B9</f>
+        <v>639200</v>
+      </c>
+      <c r="D20" s="9">
+        <f>2*B6+10*B7+4*B8+6*B5+7*B9</f>
+        <v>154470</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17">
+        <f>SUMPRODUCT(B20:L20,B17:L17)</f>
+        <v>793670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="18">
+        <f>SUMPRODUCT(B19:L19,B17:L17)</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="48">
+        <f>B17/B18</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C25" s="20">
+        <f>1/C18*C17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D25" s="20">
+        <f>1/D18*D17</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="49">
+        <f>B25/$B$28</f>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="C26" s="44">
+        <f t="shared" ref="C26:L26" si="0">C25/$B$28</f>
+        <v>7.6086956521739121E-2</v>
+      </c>
+      <c r="D26" s="44">
+        <f t="shared" si="0"/>
+        <v>0.38043478260869562</v>
+      </c>
+      <c r="E26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="50">
+        <f>B26*$B$42</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="51">
+        <f t="shared" ref="C27:L27" si="1">C26*$B$42</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="46">
+        <f>SUM(B25:L25)</f>
+        <v>8.7619047619047628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="24">
+        <f>B26</f>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3">
+        <v>85</v>
+      </c>
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="8">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="D35">
+        <f>B36*24</f>
+        <v>-23040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="17">
+        <f>B33-B38</f>
+        <v>-960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="67">
+        <f>B32*B29*B18*24</f>
+        <v>232.82608695652172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="64">
+        <f>B21+B22*(1+B32/170*(1-B35))/(1+B34)</f>
+        <v>800960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="35">
+        <f>B38-B21-B22</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="27">
+        <f>(B33-B21-(B32*(1-B35)/170+1)*B22/(1+B34))*B32*B29*B18*24</f>
+        <v>-223513.04347826084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="42">
+        <f>((B33-B21)*(1+B34)/B22-1)*170/2/(1-B35)</f>
+        <v>20.912698412698418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="27">
+        <f>(B33-B21-((B43*(1-B35)/170+1)*B22/(1+B34)))*B43*B29*B18*24</f>
+        <v>26636.413043478315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +2895,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1804,7 +2903,7 @@
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1812,7 +2911,7 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <v>1</v>
       </c>
     </row>
@@ -1820,7 +2919,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="56">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -1828,7 +2927,7 @@
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>2219.19</v>
       </c>
     </row>
@@ -1836,7 +2935,7 @@
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="58">
         <f>20*B4+8*B5+10*B6</f>
         <v>7518</v>
       </c>
@@ -1845,7 +2944,7 @@
       <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="59">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>7518</v>
       </c>
@@ -1854,7 +2953,7 @@
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="60">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>2219.19</v>
       </c>
@@ -1874,25 +2973,25 @@
       <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <f>B24/$B$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="62">
         <f>B25*$B$41</f>
-        <v>71.028264495475511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <f>SUM(B24:L24)</f>
         <v>3.5714285714285712</v>
       </c>
@@ -1901,36 +3000,36 @@
       <c r="A28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="63">
         <f>B25</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="67"/>
+      <c r="E30" s="66"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6">
-        <v>10900</v>
+      <c r="B32" s="8">
+        <v>11000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44">
-        <v>0.04</v>
+      <c r="B33" s="43">
+        <v>0.19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +3037,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,53 +3045,75 @@
         <v>49</v>
       </c>
       <c r="B35" s="17">
-        <f>B38/24/B28/B31</f>
-        <v>137.9096004524888</v>
+        <f>B32-B37</f>
+        <v>629.85269401878395</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="65">
-        <f>B32-B35</f>
-        <v>10762.090399547511</v>
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>1008.0000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="35">
-        <f>B36-B21-B20</f>
-        <v>1024.9003995475105</v>
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>10370.147305981216</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>632.957305981216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B39" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>284645.41533393686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+        <v>634891.51557093416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>71.028264495475511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+        <v>122.84748789723578</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*B17*24</f>
-        <v>297880.41185193369</v>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>667500.64160346775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>1+1+2+3+4+5+6+7+8+9+10+11+12+13+14+15+16+17+18+19+20+21+22+23+24</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>B47*6900</f>
+        <v>2076900</v>
       </c>
     </row>
   </sheetData>
@@ -2002,12 +3123,525 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30">
+        <v>10.9</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2219.19</v>
+      </c>
+      <c r="C18" s="31">
+        <v>206.61</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <f>20*B4+10*B5</f>
+        <v>398</v>
+      </c>
+      <c r="C19" s="9">
+        <f>4*B6+3*B7+0.0625*B8</f>
+        <v>454.05</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>4030.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>3872.07</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>1/B17</f>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="C24" s="20">
+        <f>8/C17</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>0.45098039215686275</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>7.9192546583850927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>0.45098039215686275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>2469.7302174987635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>281.84470588235297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>8530.2697825012365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>627.79978250123668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>696080.38675969886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>138.66672643536182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>780758.67141850479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +3737,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2111,7 +3745,7 @@
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2119,7 +3753,7 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <v>1</v>
       </c>
     </row>
@@ -2127,7 +3761,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="56">
         <v>1.84</v>
       </c>
     </row>
@@ -2135,7 +3769,7 @@
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>206.61</v>
       </c>
     </row>
@@ -2143,7 +3777,7 @@
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="58">
         <f>4*B4+3*B5+0.0625*B6</f>
         <v>454.05</v>
       </c>
@@ -2152,7 +3786,7 @@
       <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="59">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>454.05</v>
       </c>
@@ -2161,7 +3795,7 @@
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="60">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>206.61</v>
       </c>
@@ -2181,25 +3815,25 @@
       <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="45">
         <f>B24/$B$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="62">
         <f>B25*$B$41</f>
-        <v>90.025583051574046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="41">
         <f>SUM(B24:L24)</f>
         <v>0.54347826086956519</v>
       </c>
@@ -2208,7 +3842,7 @@
       <c r="A28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="63">
         <f>B25</f>
         <v>1</v>
       </c>
@@ -2225,7 +3859,7 @@
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>800</v>
       </c>
     </row>
@@ -2233,7 +3867,7 @@
       <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="43">
         <v>0.04</v>
       </c>
     </row>
@@ -2250,52 +3884,62 @@
         <v>49</v>
       </c>
       <c r="B35" s="17">
-        <f>B38/24/B28/B31</f>
-        <v>120.49044343891399</v>
+        <f>B32-B37</f>
+        <v>65.48393665158369</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="65">
-        <f>B32-B35</f>
-        <v>679.50955656108601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="35">
-        <f>B36-B21-B20</f>
-        <v>18.84955656108599</v>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>734.51606334841631</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>73.856063348416285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B39" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
         <v>289177.06425339356</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
         <v>90.025583051574046</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B28*B17*24</f>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
         <v>292771.00753430964</v>
       </c>
     </row>
@@ -2306,12 +3950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M42"/>
+  <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,8 +4244,8 @@
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>10817.919999999998</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2609,7 +4253,7 @@
       <c r="A24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <f>1/B17</f>
         <v>9.0909090909090917</v>
       </c>
@@ -2640,96 +4284,96 @@
       <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="49">
         <f>B24/$B$27</f>
         <v>0.46447890371438882</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="44">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>0.22214208438514246</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="44">
         <f t="shared" si="0"/>
         <v>9.123692751532636E-2</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <f t="shared" si="0"/>
         <v>0.22214208438514246</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="50">
         <f>B25*$B$41</f>
-        <v>65.253702037686338</v>
-      </c>
-      <c r="C26" s="52">
+        <v>0</v>
+      </c>
+      <c r="C26" s="51">
         <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>31.208292278893463</v>
-      </c>
-      <c r="D26" s="52">
+        <v>0</v>
+      </c>
+      <c r="D26" s="51">
         <f t="shared" si="1"/>
-        <v>12.817691471688386</v>
-      </c>
-      <c r="E26" s="52">
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
         <f t="shared" si="1"/>
-        <v>31.208292278893463</v>
-      </c>
-      <c r="F26" s="52">
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="52">
+      <c r="J26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2738,7 +4382,7 @@
       <c r="A27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <f>SUM(B24:L24)</f>
         <v>19.572275550536418</v>
       </c>
@@ -2764,16 +4408,16 @@
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6">
-        <v>53000</v>
+      <c r="B32" s="8">
+        <v>54000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44">
-        <v>7.0000000000000007E-2</v>
+      <c r="B33" s="43">
+        <v>0.19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +4425,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="25">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,53 +4433,63 @@
         <v>49</v>
       </c>
       <c r="B35" s="17">
-        <f>B38/24/B28/B31</f>
-        <v>799.31766443100685</v>
+        <f>B32-B37</f>
+        <v>9399.9117548195791</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>114.03886043995675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="65">
-        <f>B32-B35</f>
-        <v>52200.682335568992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="18">
-        <f>B36-B21-B20</f>
-        <v>9354.5623355689968</v>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>44600.088245180421</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>1753.9682451804256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B17*B28*24</f>
-        <v>828666.14164763433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>1071955.2247557791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>140.48797806716163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+        <v>172.05900289255507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="27">
-        <f>(B32-B20-((B41*(1-B34)/170+1)*B21/(1+B33)))*B41*B17*B28*24</f>
-        <v>935562.20226998033</v>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>1358847.2711246181</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId1"/>
-    <sheet name="BFR-OB-ST" sheetId="7" r:id="rId2"/>
-    <sheet name="RE" sheetId="6" r:id="rId3"/>
-    <sheet name="RE-HGEC" sheetId="8" r:id="rId4"/>
-    <sheet name="HGEC" sheetId="5" r:id="rId5"/>
-    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId6"/>
+    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId1"/>
+    <sheet name="BFRr-OB-ST-RE" sheetId="9" r:id="rId2"/>
+    <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId3"/>
+    <sheet name="BFR-OB-ST-RE-Fus-Prp" sheetId="10" r:id="rId4"/>
+    <sheet name="RE-HGEC" sheetId="8" r:id="rId5"/>
+    <sheet name="RE" sheetId="6" r:id="rId6"/>
+    <sheet name="HGEC" sheetId="5" r:id="rId7"/>
+    <sheet name="BFR-OB-ST" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="87">
   <si>
     <t>Alphas</t>
   </si>
@@ -254,6 +256,42 @@
   </si>
   <si>
     <t>Total Units daily</t>
+  </si>
+  <si>
+    <t>BFR renting service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is profitable to rent VIF if retailing at more expensive prices </t>
+  </si>
+  <si>
+    <t>OB-Fuselage</t>
+  </si>
+  <si>
+    <t>OB-Propellant tank</t>
+  </si>
+  <si>
+    <t>St-Propellant tank</t>
+  </si>
+  <si>
+    <t>Carbon Composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producing Fuselage is not even required! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market price of Fuselage is so low that it's better to buy it rather than producing it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket Fuel </t>
+  </si>
+  <si>
+    <t>Heat Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If retailing at the same price. It is not profitable </t>
+  </si>
+  <si>
+    <t>Having the whole chain is too labor intensive and not so profitable… :(</t>
   </si>
 </sst>
 </file>
@@ -598,6 +636,244 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="7553325"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="7000875"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7267575"/>
+          <a:ext cx="3533333" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="8248650"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609415</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="7505700"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351983</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7810500"/>
+          <a:ext cx="3533333" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -712,7 +988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -723,7 +999,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>467085</xdr:colOff>
+      <xdr:colOff>390885</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>69</xdr:rowOff>
     </xdr:to>
@@ -742,7 +1018,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="8058150"/>
+          <a:off x="5038725" y="8248650"/>
           <a:ext cx="2581635" cy="495369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -761,7 +1037,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609415</xdr:colOff>
+      <xdr:colOff>287945</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>28538</xdr:rowOff>
     </xdr:to>
@@ -780,7 +1056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="7315200"/>
+          <a:off x="5095875" y="7505700"/>
           <a:ext cx="1476190" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -799,7 +1075,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351983</xdr:colOff>
+      <xdr:colOff>387701</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95193</xdr:rowOff>
     </xdr:to>
@@ -818,7 +1094,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7620000"/>
+          <a:off x="5067300" y="7810500"/>
           <a:ext cx="3533333" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -831,126 +1107,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152887</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57224</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7315200"/>
-          <a:ext cx="3486637" cy="533474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="7743825"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>580840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85688</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="6991350"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1183,7 +1340,126 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152887</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7315200"/>
+          <a:ext cx="3486637" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="7743825"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="6991350"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1302,24 +1578,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
+      <xdr:colOff>467085</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1332,7 +1608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="7553325"/>
+          <a:off x="5038725" y="8058150"/>
           <a:ext cx="2581635" cy="495369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1345,19 +1621,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590365</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95213</xdr:rowOff>
+      <xdr:colOff>609415</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1370,7 +1646,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="7000875"/>
+          <a:off x="5095875" y="7315200"/>
           <a:ext cx="1476190" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1384,18 +1660,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351983</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142818</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1408,7 +1684,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7267575"/>
+          <a:off x="5067300" y="7620000"/>
           <a:ext cx="3533333" cy="457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1686,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,10 +2001,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B4" s="30">
-        <v>2840</v>
+        <v>4740</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>54</v>
@@ -1737,10 +2013,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8">
-        <v>9475</v>
+        <v>1520</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>51</v>
@@ -1749,10 +2025,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8">
-        <v>5150</v>
+        <v>7.4</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>52</v>
@@ -1761,43 +2037,35 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8">
-        <v>440</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8">
-        <v>1480</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
-        <v>10.6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8">
-        <v>820</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10">
-        <v>18.7</v>
-      </c>
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1842,20 +2110,18 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1871,20 +2137,18 @@
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <f>B16*1</f>
+        <f>8*B16</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <f>1*B16</f>
         <v>1</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
       <c r="E16" s="5">
-        <f>C16*34</f>
-        <v>34</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*7</f>
-        <v>7</v>
-      </c>
+        <f>D16*8</f>
+        <v>8</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1900,20 +2164,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="33">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="C17" s="33">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="D17" s="33">
-        <v>0.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
+        <v>1.84</v>
+      </c>
+      <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
@@ -1926,20 +2188,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="31">
-        <v>3600</v>
+        <v>6402.57</v>
       </c>
       <c r="C18" s="31">
-        <v>390</v>
+        <v>206.61</v>
       </c>
       <c r="D18" s="31">
-        <v>1950</v>
+        <v>1109.5899999999999</v>
       </c>
       <c r="E18" s="31">
-        <v>2220</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2220</v>
-      </c>
+        <v>206.61</v>
+      </c>
+      <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -1952,24 +2212,22 @@
         <v>5</v>
       </c>
       <c r="B19" s="7">
-        <v>0</v>
+        <f>4*B4+2*B5</f>
+        <v>22000</v>
       </c>
       <c r="C19" s="9">
-        <f>40*B4+16*B5</f>
-        <v>265200</v>
+        <f>4*B6+3*B7+0.0625*B8</f>
+        <v>459.7</v>
       </c>
       <c r="D19" s="9">
-        <f>2*B6+10*B7+4*B8+6*B5</f>
-        <v>77470</v>
+        <f>30*B9+15*B7</f>
+        <v>2673</v>
       </c>
       <c r="E19" s="9">
-        <f>20*B9+8*B10+10*B11</f>
-        <v>6959</v>
-      </c>
-      <c r="F19" s="9">
-        <f>20*B9+8*B10+10*B11</f>
-        <v>6959</v>
-      </c>
+        <f>4*B6+3*B7+0.0625*B8</f>
+        <v>459.7</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1983,7 +2241,7 @@
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>627989</v>
+        <v>32028.199999999997</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1992,8 +2250,10 @@
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>96960</v>
-      </c>
+        <v>10817.919999999998</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2002,25 +2262,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="48">
-        <f>B16/B17</f>
-        <v>4.7619047619047619</v>
+        <f>1/B17</f>
+        <v>9.0909090909090917</v>
       </c>
       <c r="C24" s="20">
-        <f>1/C17*C16</f>
-        <v>0.66666666666666663</v>
+        <f>8/C17</f>
+        <v>4.3478260869565215</v>
       </c>
       <c r="D24" s="20">
-        <f>1/D17*D16</f>
-        <v>3.3333333333333335</v>
+        <f>D16/D17</f>
+        <v>1.7857142857142856</v>
       </c>
       <c r="E24" s="20">
-        <f>1/E17*E16</f>
-        <v>121.42857142857142</v>
-      </c>
-      <c r="F24" s="20">
-        <f>1/F17*F16</f>
-        <v>25</v>
-      </c>
+        <f>E16/E17</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -2037,23 +2294,23 @@
       </c>
       <c r="B25" s="49">
         <f>B24/$B$27</f>
-        <v>3.0684258975145751E-2</v>
+        <v>0.46447890371438882</v>
       </c>
       <c r="C25" s="44">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>4.2957962565204049E-3</v>
+        <v>0.22214208438514246</v>
       </c>
       <c r="D25" s="44">
         <f t="shared" si="0"/>
-        <v>2.147898128260203E-2</v>
+        <v>9.123692751532636E-2</v>
       </c>
       <c r="E25" s="44">
         <f t="shared" si="0"/>
-        <v>0.78244860386621662</v>
+        <v>0.22214208438514246</v>
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>0.16109235961951521</v>
+        <v>0</v>
       </c>
       <c r="G25" s="44">
         <f t="shared" si="0"/>
@@ -2085,24 +2342,24 @@
         <v>57</v>
       </c>
       <c r="B26" s="50">
-        <f>B25*$B$42</f>
-        <v>4.4583865332092252</v>
+        <f>B25*$B$41</f>
+        <v>0</v>
       </c>
       <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$42</f>
-        <v>0.62417411464929151</v>
+        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
+        <v>0</v>
       </c>
       <c r="D26" s="51">
         <f t="shared" si="1"/>
-        <v>3.1208705732464583</v>
+        <v>0</v>
       </c>
       <c r="E26" s="51">
         <f t="shared" si="1"/>
-        <v>113.68885659683524</v>
+        <v>0</v>
       </c>
       <c r="F26" s="51">
         <f t="shared" si="1"/>
-        <v>23.406529299348435</v>
+        <v>0</v>
       </c>
       <c r="G26" s="51">
         <f t="shared" si="1"/>
@@ -2135,7 +2392,7 @@
       </c>
       <c r="B27" s="46">
         <f>SUM(B24:L24)</f>
-        <v>155.19047619047618</v>
+        <v>19.572275550536418</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2144,7 +2401,7 @@
       </c>
       <c r="B28" s="24">
         <f>B25</f>
-        <v>3.0684258975145751E-2</v>
+        <v>0.46447890371438882</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2152,16 +2409,15 @@
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>155.19</v>
-      </c>
-      <c r="E31" s="65"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="8">
-        <v>800000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2425,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="43">
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2442,7 @@
       </c>
       <c r="B35" s="17">
         <f>B32-B37</f>
-        <v>42184.531586752273</v>
+        <v>8266.524222100059</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2195,7 +2451,7 @@
       </c>
       <c r="B36" s="67">
         <f>B31*B28*B17*24</f>
-        <v>23.999926357778456</v>
+        <v>114.03886043995675</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2460,7 @@
       </c>
       <c r="B37" s="64">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>757815.46841324773</v>
+        <v>45733.475777899941</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2213,7 +2469,7 @@
       </c>
       <c r="B38" s="35">
         <f>B37-B20-B21</f>
-        <v>32866.468413247727</v>
+        <v>2887.3557778999457</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,16 +2478,17 @@
       </c>
       <c r="B39" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>1012425.6515194352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>942705.00208759098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>145.29881711728865</v>
+        <v>153.42235703493697</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2497,7 @@
       </c>
       <c r="B43" s="27">
         <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>1017139.2514666249</v>
+        <v>1115762.2005848682</v>
       </c>
     </row>
   </sheetData>
@@ -2252,10 +2509,2960 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M47"/>
+  <dimension ref="A2:M50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2840</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9475</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*1</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f>C16*34</f>
+        <v>34</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16*7</f>
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <f>1/(1/C17+1/D17)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0</v>
+      </c>
+      <c r="C18" s="31">
+        <v>390</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1950</v>
+      </c>
+      <c r="E18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>12000</v>
+      </c>
+      <c r="C19" s="9">
+        <f>40*B4+16*B5</f>
+        <v>265200</v>
+      </c>
+      <c r="D19" s="9">
+        <f>2*B6+10*B7+4*B8+6*B5</f>
+        <v>77470</v>
+      </c>
+      <c r="E19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
+      </c>
+      <c r="F19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>639989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>93360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <v>0</v>
+      </c>
+      <c r="C24" s="20">
+        <f>1/C17*C16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="20">
+        <f>1/D17*D16</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E24" s="20">
+        <f>1/E17*E16</f>
+        <v>121.42857142857142</v>
+      </c>
+      <c r="F24" s="20">
+        <f>1/F17*F16</f>
+        <v>25</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>4.4317822095599878E-3</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>2.2158911047799941E-2</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.80721747388414056</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.16619183285849953</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$42</f>
+        <v>0.61611445236032358</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" si="1"/>
+        <v>3.0805722618016178</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>112.22084667991606</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>23.104291963512132</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>150.42857142857142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>C25+D25</f>
+        <v>2.6590693257359931E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>155</v>
+      </c>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>41048.822979659075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>24.729344729344735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>778951.17702034093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>45602.177020340925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>1015110.4941978385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>139.02182535759013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>1028699.1575216546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2840</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9475</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*1</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f>C16*34</f>
+        <v>34</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16*7</f>
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3600</v>
+      </c>
+      <c r="C18" s="31">
+        <v>390</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1950</v>
+      </c>
+      <c r="E18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>40*B4+16*B5</f>
+        <v>265200</v>
+      </c>
+      <c r="D19" s="9">
+        <f>2*B6+10*B7+4*B8+6*B5</f>
+        <v>77470</v>
+      </c>
+      <c r="E19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
+      </c>
+      <c r="F19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>627989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>96960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>B16/B17</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C24" s="20">
+        <f>1/C17*C16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="20">
+        <f>1/D17*D16</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E24" s="20">
+        <f>1/E17*E16</f>
+        <v>121.42857142857142</v>
+      </c>
+      <c r="F24" s="20">
+        <f>1/F17*F16</f>
+        <v>25</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>3.0684258975145751E-2</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>4.2957962565204049E-3</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>2.147898128260203E-2</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.78244860386621662</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.16109235961951521</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>3.6041737457020431</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$42</f>
+        <v>0.50458432439828593</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" si="1"/>
+        <v>2.5229216219914306</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>91.906430515402093</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>18.921912164935726</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>155.19047619047618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>3.0684258975145751E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>155.19</v>
+      </c>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>27624.553820780711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>23.999926357778456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>772375.44617921929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>47426.446179219289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>662987.25736522325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>117.46002237242958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>739264.06978487538</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="30">
+        <v>61.5</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="8">
+        <v>32.5</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*1</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5">
+        <f>C16*34</f>
+        <v>34</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5">
+        <f>G16*7</f>
+        <v>7</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="33">
+        <v>4.51</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="33">
+        <v>4.51</v>
+      </c>
+      <c r="I17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3600</v>
+      </c>
+      <c r="C18" s="31">
+        <v>390</v>
+      </c>
+      <c r="D18" s="31">
+        <v>390.55</v>
+      </c>
+      <c r="E18" s="31">
+        <v>130.18</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1950</v>
+      </c>
+      <c r="H18" s="31">
+        <v>130.18</v>
+      </c>
+      <c r="I18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <f>40*B4</f>
+        <v>2460</v>
+      </c>
+      <c r="E19" s="9">
+        <f>50*B5+250*B6</f>
+        <v>9035</v>
+      </c>
+      <c r="F19" s="9">
+        <f>20*B7+8*B8+10*B5</f>
+        <v>6958</v>
+      </c>
+      <c r="G19" s="9">
+        <f>2*B9+10*B10+4*B11</f>
+        <v>20680</v>
+      </c>
+      <c r="H19" s="9">
+        <f>50*B5+250*B6</f>
+        <v>9035</v>
+      </c>
+      <c r="I19" s="9">
+        <f>20*B7+8*B8+10*B5</f>
+        <v>6958</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>603128</v>
+      </c>
+      <c r="D20" s="66">
+        <f>D18*$B$31/200+D19</f>
+        <v>2763.0472725</v>
+      </c>
+      <c r="E20" s="66">
+        <f t="shared" ref="E20:L20" si="0">E18*$B$31/200+E19</f>
+        <v>9136.0131710000005</v>
+      </c>
+      <c r="F20" s="66">
+        <f t="shared" si="0"/>
+        <v>8680.6090000000004</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66">
+        <f t="shared" si="0"/>
+        <v>9136.0131710000005</v>
+      </c>
+      <c r="I20" s="66">
+        <f t="shared" si="0"/>
+        <v>8680.6090000000004</v>
+      </c>
+      <c r="J20" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>115445.96</v>
+      </c>
+      <c r="D21" s="66"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>B16/B17</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C24" s="20">
+        <f>C16/C17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="20">
+        <f>D16/D17</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="E24" s="20">
+        <f>E16/E17</f>
+        <v>3.5476718403547673</v>
+      </c>
+      <c r="F24" s="20">
+        <f>F16/F17</f>
+        <v>121.42857142857142</v>
+      </c>
+      <c r="G24" s="20">
+        <f>G16/G17</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H24" s="20">
+        <f>H16/H17</f>
+        <v>1.3303769401330379</v>
+      </c>
+      <c r="I24" s="20">
+        <f>I16/I17</f>
+        <v>24.999999999999996</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>2.5500842771755017E-2</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="1">C24/$B$27</f>
+        <v>3.5701179880457024E-3</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="1"/>
+        <v>0.14280471952182811</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="1"/>
+        <v>1.8998410579400635E-2</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="1"/>
+        <v>0.65027149067975287</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="1"/>
+        <v>1.7850589940228513E-2</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="1"/>
+        <v>7.1244039672752387E-3</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="1"/>
+        <v>0.13387942455171381</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>2.7501134412382089</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" ref="C26:L26" si="2">C25*$B$42</f>
+        <v>0.38501588177334922</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" si="2"/>
+        <v>15.40063527093397</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="2"/>
+        <v>2.0488650027850071</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="2"/>
+        <v>70.127892751574322</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="2"/>
+        <v>1.9250794088667462</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="2"/>
+        <v>0.76832437604437775</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="2"/>
+        <v>14.438095566500593</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>186.73519163763066</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>2.5500842771755017E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>155.19</v>
+      </c>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>24957.479680813616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>19.945677980333251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>775042.52031918638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>56468.560319186377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>497793.85291421867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>107.84402169971658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>616646.99199138768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30">
+        <v>10.9</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2219.19</v>
+      </c>
+      <c r="C18" s="31">
+        <v>206.61</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9">
+        <f>20*B4+10*B5</f>
+        <v>398</v>
+      </c>
+      <c r="C19" s="9">
+        <f>4*B6+3*B7+0.0625*B8</f>
+        <v>454.05</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>4030.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>3872.07</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>1/B17</f>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="C24" s="20">
+        <f>8/C17</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>0.45098039215686275</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>7.9192546583850927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>0.45098039215686275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>2064.055571742716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>281.84470588235297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>8935.944428257284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>1033.4744282572842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>581743.13554265804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>121.08775449267745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>614824.60796923423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30">
+        <v>10.9</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>890</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="57">
+        <v>2219.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="58">
+        <f>20*B4+8*B5+10*B6</f>
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="59">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="60">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>2219.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="21">
+        <f>B16/B17</f>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45">
+        <f>B24/$B$27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="62">
+        <f>B25*$B$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="41">
+        <f>SUM(B24:L24)</f>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="63">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="66"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>1140.2241233031673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>336.00000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>10059.775876696833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>322.58587669683266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>383115.30542986427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>94.877063599435274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>493534.28276109399</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="30">
+        <v>7.4</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6100</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="56">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="57">
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="58">
+        <f>4*B4+3*B5+0.0625*B6</f>
+        <v>454.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="59">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>454.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="60">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>206.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21">
+        <f>B16/B17</f>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45">
+        <f>B24/$B$27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="62">
+        <f>B25*$B$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="41">
+        <f>SUM(B24:L24)</f>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="63">
+        <f>B25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>79.026690489279872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B31*B28*B17*24</f>
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="64">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>720.97330951072013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>60.313309510720103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>348981.86520065973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>103.51946997874104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>349385.7110187303</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +5897,7 @@
       </c>
       <c r="E32" s="65"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>17</v>
       </c>
@@ -2698,36 +5905,32 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="43">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="D35">
-        <f>B36*24</f>
-        <v>-23040</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="17">
         <f>B33-B38</f>
-        <v>-960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1025.6074766354868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>74</v>
       </c>
@@ -2736,1760 +5939,55 @@
         <v>232.82608695652172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="64">
         <f>B21+B22*(1+B32/170*(1-B35))/(1+B34)</f>
-        <v>800960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>801025.60747663549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="35">
         <f>B38-B21-B22</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1415.6074766354868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="27">
         <f>(B33-B21-(B32*(1-B35)/170+1)*B22/(1+B34))*B32*B29*B18*24</f>
-        <v>-223513.04347826084</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-238788.17553839879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="42">
         <f>((B33-B21)*(1+B34)/B22-1)*170/2/(1-B35)</f>
-        <v>20.912698412698418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.340714840714845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="27">
         <f>(B33-B21-((B43*(1-B35)/170+1)*B22/(1+B34)))*B43*B29*B18*24</f>
-        <v>26636.413043478315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+        <v>19557.454706001019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="30">
-        <v>10.9</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8">
-        <v>890</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="8">
-        <v>18</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="56">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="57">
-        <v>2219.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="58">
-        <f>20*B4+8*B5+10*B6</f>
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="59">
-        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="60">
-        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>2219.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="21">
-        <f>B16/B17</f>
-        <v>3.5714285714285712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="45">
-        <f>B24/$B$27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="62">
-        <f>B25*$B$41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="41">
-        <f>SUM(B24:L24)</f>
-        <v>3.5714285714285712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="63">
-        <f>B25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="66"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>629.85269401878395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="67">
-        <f>B31*B28*B17*24</f>
-        <v>1008.0000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="64">
-        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>10370.147305981216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>632.957305981216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>634891.51557093416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
-        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>122.84748789723578</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>667500.64160346775</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f>1+1+2+3+4+5+6+7+8+9+10+11+12+13+14+15+16+17+18+19+20+21+22+23+24</f>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <f>B47*6900</f>
-        <v>2076900</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="30">
-        <v>10.9</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="8">
-        <v>18</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="8">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="8">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1.84</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="31">
-        <v>2219.19</v>
-      </c>
-      <c r="C18" s="31">
-        <v>206.61</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9">
-        <f>20*B4+10*B5</f>
-        <v>398</v>
-      </c>
-      <c r="C19" s="9">
-        <f>4*B6+3*B7+0.0625*B8</f>
-        <v>454.05</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="17">
-        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>4030.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18">
-        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>3872.07</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
-        <f>1/B17</f>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="C24" s="20">
-        <f>8/C17</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
-        <f>B24/$B$27</f>
-        <v>0.45098039215686275</v>
-      </c>
-      <c r="C25" s="44">
-        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>0.5490196078431373</v>
-      </c>
-      <c r="D25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
-        <f>B25*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
-        <f>SUM(B24:L24)</f>
-        <v>7.9192546583850927</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="24">
-        <f>B25</f>
-        <v>0.45098039215686275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>2469.7302174987635</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="67">
-        <f>B31*B28*B17*24</f>
-        <v>281.84470588235297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="64">
-        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>8530.2697825012365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>627.79978250123668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>696080.38675969886</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
-        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>138.66672643536182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>780758.67141850479</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="30">
-        <v>7.4</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="8">
-        <v>14.4</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="8">
-        <v>6100</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="56">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="57">
-        <v>206.61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="58">
-        <f>4*B4+3*B5+0.0625*B6</f>
-        <v>454.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="59">
-        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>454.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="60">
-        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>206.61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="21">
-        <f>B16/B17</f>
-        <v>0.54347826086956519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="45">
-        <f>B24/$B$27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="62">
-        <f>B25*$B$41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="41">
-        <f>SUM(B24:L24)</f>
-        <v>0.54347826086956519</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="63">
-        <f>B25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>65.48393665158369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="67">
-        <f>B31*B28*B17*24</f>
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="64">
-        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>734.51606334841631</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>73.856063348416285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>289177.06425339356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
-        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>90.025583051574046</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>292771.00753430964</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="30">
-        <v>4740</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1520</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="8">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="8">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <f>8*B16</f>
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <f>1*B16</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <f>D16*8</f>
-        <v>8</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1.84</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E17" s="33">
-        <v>1.84</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="31">
-        <v>6402.57</v>
-      </c>
-      <c r="C18" s="31">
-        <v>206.61</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1109.5899999999999</v>
-      </c>
-      <c r="E18" s="31">
-        <v>206.61</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7">
-        <f>4*B4+2*B5</f>
-        <v>22000</v>
-      </c>
-      <c r="C19" s="9">
-        <f>4*B6+3*B7+0.0625*B8</f>
-        <v>459.7</v>
-      </c>
-      <c r="D19" s="9">
-        <f>30*B9+15*B7</f>
-        <v>2673</v>
-      </c>
-      <c r="E19" s="9">
-        <f>4*B6+3*B7+0.0625*B8</f>
-        <v>459.7</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="17">
-        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>32028.199999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18">
-        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>10817.919999999998</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
-        <f>1/B17</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="C24" s="20">
-        <f>8/C17</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="D24" s="20">
-        <f>D16/D17</f>
-        <v>1.7857142857142856</v>
-      </c>
-      <c r="E24" s="20">
-        <f>E16/E17</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
-        <f>B24/$B$27</f>
-        <v>0.46447890371438882</v>
-      </c>
-      <c r="C25" s="44">
-        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>0.22214208438514246</v>
-      </c>
-      <c r="D25" s="44">
-        <f t="shared" si="0"/>
-        <v>9.123692751532636E-2</v>
-      </c>
-      <c r="E25" s="44">
-        <f t="shared" si="0"/>
-        <v>0.22214208438514246</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
-        <f>B25*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
-        <f>SUM(B24:L24)</f>
-        <v>19.572275550536418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="24">
-        <f>B25</f>
-        <v>0.46447890371438882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>9399.9117548195791</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="67">
-        <f>B31*B28*B17*24</f>
-        <v>114.03886043995675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="64">
-        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>44600.088245180421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>1753.9682451804256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>1071955.2247557791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
-        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>172.05900289255507</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>1358847.2711246181</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId1"/>
@@ -711,20 +711,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351983</xdr:colOff>
+      <xdr:colOff>332934</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142818</xdr:rowOff>
+      <xdr:rowOff>133295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -737,8 +737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7267575"/>
-          <a:ext cx="3533333" cy="457143"/>
+          <a:off x="5057775" y="7277100"/>
+          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,19 +831,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351983</xdr:colOff>
+      <xdr:colOff>371034</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>114243</xdr:rowOff>
+      <xdr:rowOff>76145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -856,8 +856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7810500"/>
-          <a:ext cx="3533333" cy="457143"/>
+          <a:off x="5095875" y="7810500"/>
+          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -950,19 +950,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351983</xdr:colOff>
+      <xdr:colOff>351984</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95193</xdr:rowOff>
+      <xdr:rowOff>104720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -975,8 +975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7620000"/>
-          <a:ext cx="3533333" cy="457143"/>
+          <a:off x="5076825" y="7839075"/>
+          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,19 +1069,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>387701</xdr:colOff>
+      <xdr:colOff>399609</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95193</xdr:rowOff>
+      <xdr:rowOff>95195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1094,8 +1094,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7810500"/>
-          <a:ext cx="3533333" cy="457143"/>
+          <a:off x="5019675" y="7829550"/>
+          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,44 +1109,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152887</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76274</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7315200"/>
-          <a:ext cx="3486637" cy="533474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1168,7 +1130,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1206,7 +1168,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1244,7 +1206,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1282,7 +1244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1304,31 +1266,31 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351983</xdr:colOff>
+      <xdr:colOff>342459</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>142818</xdr:rowOff>
+      <xdr:rowOff>114245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7267575"/>
-          <a:ext cx="3533333" cy="457143"/>
+          <a:off x="5067300" y="7258050"/>
+          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,17 +1623,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351983</xdr:colOff>
+      <xdr:colOff>342459</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95193</xdr:rowOff>
+      <xdr:rowOff>47570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1684,8 +1646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="7620000"/>
-          <a:ext cx="3533333" cy="457143"/>
+          <a:off x="5067300" y="7781925"/>
+          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -4041,35 +4003,35 @@
         <v>20</v>
       </c>
       <c r="B24" s="48">
-        <f>B16/B17</f>
+        <f t="shared" ref="B24:I24" si="1">B16/B17</f>
         <v>4.7619047619047619</v>
       </c>
       <c r="C24" s="20">
-        <f>C16/C17</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="D24" s="20">
-        <f>D16/D17</f>
+        <f t="shared" si="1"/>
         <v>26.666666666666668</v>
       </c>
       <c r="E24" s="20">
-        <f>E16/E17</f>
+        <f t="shared" si="1"/>
         <v>3.5476718403547673</v>
       </c>
       <c r="F24" s="20">
-        <f>F16/F17</f>
+        <f t="shared" si="1"/>
         <v>121.42857142857142</v>
       </c>
       <c r="G24" s="20">
-        <f>G16/G17</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H24" s="20">
-        <f>H16/H17</f>
+        <f t="shared" si="1"/>
         <v>1.3303769401330379</v>
       </c>
       <c r="I24" s="20">
-        <f>I16/I17</f>
+        <f t="shared" si="1"/>
         <v>24.999999999999996</v>
       </c>
       <c r="J24" s="20"/>
@@ -4088,43 +4050,43 @@
         <v>2.5500842771755017E-2</v>
       </c>
       <c r="C25" s="44">
-        <f t="shared" ref="C25:L25" si="1">C24/$B$27</f>
+        <f t="shared" ref="C25:L25" si="2">C24/$B$27</f>
         <v>3.5701179880457024E-3</v>
       </c>
       <c r="D25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14280471952182811</v>
       </c>
       <c r="E25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8998410579400635E-2</v>
       </c>
       <c r="F25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65027149067975287</v>
       </c>
       <c r="G25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7850589940228513E-2</v>
       </c>
       <c r="H25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1244039672752387E-3</v>
       </c>
       <c r="I25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13387942455171381</v>
       </c>
       <c r="J25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4137,43 +4099,43 @@
         <v>2.7501134412382089</v>
       </c>
       <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="2">C25*$B$42</f>
+        <f t="shared" ref="C26:L26" si="3">C25*$B$42</f>
         <v>0.38501588177334922</v>
       </c>
       <c r="D26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.40063527093397</v>
       </c>
       <c r="E26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0488650027850071</v>
       </c>
       <c r="F26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70.127892751574322</v>
       </c>
       <c r="G26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9250794088667462</v>
       </c>
       <c r="H26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76832437604437775</v>
       </c>
       <c r="I26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.438095566500593</v>
       </c>
       <c r="J26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K26" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L26" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5147,7 +5109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -5461,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId1"/>
-    <sheet name="BFRr-OB-ST-RE" sheetId="9" r:id="rId2"/>
-    <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId3"/>
+    <sheet name="BFR-OB-ST" sheetId="7" r:id="rId1"/>
+    <sheet name="BFR-OB-ST-RE" sheetId="4" r:id="rId2"/>
+    <sheet name="BFRr-OB-ST-RE" sheetId="9" r:id="rId3"/>
     <sheet name="BFR-OB-ST-RE-Fus-Prp" sheetId="10" r:id="rId4"/>
-    <sheet name="RE-HGEC" sheetId="8" r:id="rId5"/>
-    <sheet name="RE" sheetId="6" r:id="rId6"/>
-    <sheet name="HGEC" sheetId="5" r:id="rId7"/>
-    <sheet name="BFR-OB-ST" sheetId="7" r:id="rId8"/>
+    <sheet name="SAT-Ion-HGEC" sheetId="3" r:id="rId5"/>
+    <sheet name="RE-HGEC" sheetId="8" r:id="rId6"/>
+    <sheet name="RE" sheetId="6" r:id="rId7"/>
+    <sheet name="HGEC" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
   <si>
     <t>Alphas</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Having the whole chain is too labor intensive and not so profitable… :(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This method is the best if getting a good q3 rocket engine producer which sells cheap enough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">also, this strategy is only good for those who produce q5 BFRs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe having a hybrid model. Something between producing our own RE and also buying the rest of them </t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -595,7 +604,6 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -636,15 +644,134 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1107622</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
+      <xdr:colOff>262978</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>176962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5271408" y="8022772"/>
+          <a:ext cx="2597963" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>405309</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="7315200"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138353</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="7781925"/>
+          <a:ext cx="3523809" cy="438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31656</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -661,7 +788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="7553325"/>
+          <a:off x="5038725" y="8058150"/>
           <a:ext cx="2581635" cy="495369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -674,19 +801,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590365</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95213</xdr:rowOff>
+      <xdr:colOff>418916</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -699,7 +826,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="7000875"/>
+          <a:off x="5095875" y="7315200"/>
           <a:ext cx="1476190" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -711,20 +838,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>332934</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133295</xdr:rowOff>
+      <xdr:colOff>161485</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -737,7 +864,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057775" y="7277100"/>
+          <a:off x="5076825" y="7839075"/>
           <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -750,7 +877,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -857,125 +984,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5095875" y="7810500"/>
-          <a:ext cx="3523809" cy="438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>467085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5038725" y="8058150"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609415</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7315200"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>351984</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076825" y="7839075"/>
           <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1108,6 +1116,125 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="7553325"/>
+          <a:ext cx="2581635" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="7000875"/>
+          <a:ext cx="1476190" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332934</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="7277100"/>
+          <a:ext cx="3523809" cy="438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1302,7 +1429,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1421,7 +1548,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1529,125 +1656,6 @@
         <a:xfrm>
           <a:off x="5076825" y="6924675"/>
           <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>467085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5038725" y="8058150"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609415</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7315200"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342459</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47570</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5067300" y="7781925"/>
-          <a:ext cx="3523809" cy="438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,10 +1930,1129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2840</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9475</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*1</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3600</v>
+      </c>
+      <c r="C18" s="31">
+        <v>390</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1950</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>40*B4+16*B5+34*B9</f>
+        <v>649400</v>
+      </c>
+      <c r="D19" s="9">
+        <f>2*B6+10*B7+4*B8+6*B5+7*B9</f>
+        <v>156570</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>805970</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>B16/B17</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C24" s="20">
+        <f>1/C17*C16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="20">
+        <f>1/D17*D16</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>7.6086956521739121E-2</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.38043478260869562</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>108.54482675134848</v>
+      </c>
+      <c r="C26" s="51">
+        <f>C25*$B$42</f>
+        <v>15.196275745188785</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
+        <v>75.981378725943927</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>8.7619047619047628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>70</v>
+      </c>
+      <c r="E31" s="64"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>6992.7817482133396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="66">
+        <f>B31*B28*B17*24</f>
+        <v>191.73913043478257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="63">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>813007.21825178666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>1097.2182517866604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>1340789.8917226379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>199.72248122248121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>2319176.0723202713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2840</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9475</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5150</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16*1</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f>C16*34</f>
+        <v>34</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16*7</f>
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>3600</v>
+      </c>
+      <c r="C18" s="31">
+        <v>390</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1950</v>
+      </c>
+      <c r="E18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2220</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>40*B4+16*B5</f>
+        <v>265200</v>
+      </c>
+      <c r="D19" s="9">
+        <f>2*B6+10*B7+4*B8+6*B5</f>
+        <v>77470</v>
+      </c>
+      <c r="E19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>7039</v>
+      </c>
+      <c r="F19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>7039</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>631269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>96960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>B16/B17</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="C24" s="20">
+        <f>1/C17*C16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="20">
+        <f>1/D17*D16</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E24" s="20">
+        <f>1/E17*E16</f>
+        <v>121.42857142857142</v>
+      </c>
+      <c r="F24" s="20">
+        <f>1/F17*F16</f>
+        <v>25</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>3.0684258975145751E-2</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>4.2957962565204049E-3</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>2.147898128260203E-2</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.78244860386621662</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.16109235961951521</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>4.3445434727165226</v>
+      </c>
+      <c r="C26" s="51">
+        <f>C25*$B$42</f>
+        <v>0.60823608618031311</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
+        <v>3.0411804309015666</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>110.78585855427133</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>22.808853231761745</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>155.19047619047618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>3.0684258975145751E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>155.19</v>
+      </c>
+      <c r="E31" s="64"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>44344.553820780711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="66">
+        <f>B31*B28*B17*24</f>
+        <v>23.999926357778456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="63">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>775655.44617921929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>47426.446179219289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>1064266.026067279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>141.58867177583147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>1074178.50055261</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,10 +3090,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B4" s="30">
-        <v>4740</v>
+        <v>2840</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>54</v>
@@ -1975,10 +3102,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>1520</v>
+        <v>9475</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>51</v>
@@ -1987,10 +3114,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>7.4</v>
+        <v>5150</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>52</v>
@@ -1999,35 +3126,43 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>14.2</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8">
-        <v>6200</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8">
-        <v>82</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>820</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2072,18 +3207,20 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2099,18 +3236,20 @@
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <f>8*B16</f>
-        <v>8</v>
+        <f>B16*1</f>
+        <v>1</v>
       </c>
       <c r="D16" s="5">
-        <f>1*B16</f>
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <f>D16*8</f>
-        <v>8</v>
-      </c>
-      <c r="F16" s="5"/>
+        <f>C16*34</f>
+        <v>34</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16*7</f>
+        <v>7</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -2126,18 +3265,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="33">
-        <v>0.11</v>
+        <f>1/(1/C17+1/D17)</f>
+        <v>0.25</v>
       </c>
       <c r="C17" s="33">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="33">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="E17" s="33">
-        <v>1.84</v>
-      </c>
-      <c r="F17" s="33"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
@@ -2150,18 +3292,20 @@
         <v>4</v>
       </c>
       <c r="B18" s="31">
-        <v>6402.57</v>
+        <v>0</v>
       </c>
       <c r="C18" s="31">
-        <v>206.61</v>
+        <v>390</v>
       </c>
       <c r="D18" s="31">
-        <v>1109.5899999999999</v>
+        <v>1950</v>
       </c>
       <c r="E18" s="31">
-        <v>206.61</v>
-      </c>
-      <c r="F18" s="31"/>
+        <v>2220</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2220</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -2174,22 +3318,24 @@
         <v>5</v>
       </c>
       <c r="B19" s="7">
-        <f>4*B4+2*B5</f>
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="C19" s="9">
-        <f>4*B6+3*B7+0.0625*B8</f>
-        <v>459.7</v>
+        <f>40*B4+16*B5</f>
+        <v>265200</v>
       </c>
       <c r="D19" s="9">
-        <f>30*B9+15*B7</f>
-        <v>2673</v>
+        <f>2*B6+10*B7+4*B8+6*B5</f>
+        <v>77470</v>
       </c>
       <c r="E19" s="9">
-        <f>4*B6+3*B7+0.0625*B8</f>
-        <v>459.7</v>
-      </c>
-      <c r="F19" s="9"/>
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
+      </c>
+      <c r="F19" s="9">
+        <f>20*B9+8*B10+10*B11</f>
+        <v>6959</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -2203,7 +3349,7 @@
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>32028.199999999997</v>
+        <v>639989</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,10 +3358,8 @@
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>10817.919999999998</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+        <v>93360</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2224,22 +3368,24 @@
         <v>20</v>
       </c>
       <c r="B24" s="48">
-        <f>1/B17</f>
-        <v>9.0909090909090917</v>
+        <v>0</v>
       </c>
       <c r="C24" s="20">
-        <f>8/C17</f>
-        <v>4.3478260869565215</v>
+        <f>1/C17*C16</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D24" s="20">
-        <f>D16/D17</f>
-        <v>1.7857142857142856</v>
+        <f>1/D17*D16</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E24" s="20">
-        <f>E16/E17</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="F24" s="20"/>
+        <f>1/E17*E16</f>
+        <v>121.42857142857142</v>
+      </c>
+      <c r="F24" s="20">
+        <f>1/F17*F16</f>
+        <v>25</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -2256,23 +3402,23 @@
       </c>
       <c r="B25" s="49">
         <f>B24/$B$27</f>
-        <v>0.46447890371438882</v>
+        <v>0</v>
       </c>
       <c r="C25" s="44">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>0.22214208438514246</v>
+        <v>4.4317822095599878E-3</v>
       </c>
       <c r="D25" s="44">
         <f t="shared" si="0"/>
-        <v>9.123692751532636E-2</v>
+        <v>2.2158911047799941E-2</v>
       </c>
       <c r="E25" s="44">
         <f t="shared" si="0"/>
-        <v>0.22214208438514246</v>
+        <v>0.80721747388414056</v>
       </c>
       <c r="F25" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16619183285849953</v>
       </c>
       <c r="G25" s="44">
         <f t="shared" si="0"/>
@@ -2304,24 +3450,24 @@
         <v>57</v>
       </c>
       <c r="B26" s="50">
-        <f>B25*$B$41</f>
+        <f>B25*$B$42</f>
         <v>0</v>
       </c>
       <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>0</v>
+        <f>C25*$B$42</f>
+        <v>0.61611445236032358</v>
       </c>
       <c r="D26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
+        <v>3.0805722618016178</v>
       </c>
       <c r="E26" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112.22084667991606</v>
       </c>
       <c r="F26" s="51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.104291963512132</v>
       </c>
       <c r="G26" s="51">
         <f t="shared" si="1"/>
@@ -2343,7 +3489,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2354,7 +3500,7 @@
       </c>
       <c r="B27" s="46">
         <f>SUM(B24:L24)</f>
-        <v>19.572275550536418</v>
+        <v>150.42857142857142</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2362,8 +3508,8 @@
         <v>44</v>
       </c>
       <c r="B28" s="24">
-        <f>B25</f>
-        <v>0.46447890371438882</v>
+        <f>C25+D25</f>
+        <v>2.6590693257359931E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2371,15 +3517,16 @@
         <v>18</v>
       </c>
       <c r="B31" s="3">
-        <v>93</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E31" s="64"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="8">
-        <v>54000</v>
+        <v>820000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,25 +3551,25 @@
       </c>
       <c r="B35" s="17">
         <f>B32-B37</f>
-        <v>8266.524222100059</v>
+        <v>41048.822979659075</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <f>B31*B28*B17*24</f>
-        <v>114.03886043995675</v>
+        <v>24.729344729344735</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>45733.475777899941</v>
+        <v>778951.17702034093</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2431,7 +3578,7 @@
       </c>
       <c r="B38" s="35">
         <f>B37-B20-B21</f>
-        <v>2887.3557778999457</v>
+        <v>45602.177020340925</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,17 +3587,16 @@
       </c>
       <c r="B39" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>942705.00208759098</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1015110.4941978385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>153.42235703493697</v>
+        <v>139.02182535759013</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,574 +3605,6 @@
       </c>
       <c r="B43" s="27">
         <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>1115762.2005848682</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="30">
-        <v>2840</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9475</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5150</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <f>B16*1</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <f>C16*34</f>
-        <v>34</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*7</f>
-        <v>7</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="33">
-        <f>1/(1/C17+1/D17)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="31">
-        <v>0</v>
-      </c>
-      <c r="C18" s="31">
-        <v>390</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1950</v>
-      </c>
-      <c r="E18" s="31">
-        <v>2220</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2220</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7">
-        <v>12000</v>
-      </c>
-      <c r="C19" s="9">
-        <f>40*B4+16*B5</f>
-        <v>265200</v>
-      </c>
-      <c r="D19" s="9">
-        <f>2*B6+10*B7+4*B8+6*B5</f>
-        <v>77470</v>
-      </c>
-      <c r="E19" s="9">
-        <f>20*B9+8*B10+10*B11</f>
-        <v>6959</v>
-      </c>
-      <c r="F19" s="9">
-        <f>20*B9+8*B10+10*B11</f>
-        <v>6959</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="17">
-        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>639989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18">
-        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>93360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <f>1/C17*C16</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D24" s="20">
-        <f>1/D17*D16</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E24" s="20">
-        <f>1/E17*E16</f>
-        <v>121.42857142857142</v>
-      </c>
-      <c r="F24" s="20">
-        <f>1/F17*F16</f>
-        <v>25</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
-        <f>B24/$B$27</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="44">
-        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>4.4317822095599878E-3</v>
-      </c>
-      <c r="D25" s="44">
-        <f t="shared" si="0"/>
-        <v>2.2158911047799941E-2</v>
-      </c>
-      <c r="E25" s="44">
-        <f t="shared" si="0"/>
-        <v>0.80721747388414056</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" si="0"/>
-        <v>0.16619183285849953</v>
-      </c>
-      <c r="G25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
-        <f>B25*$B$42</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$42</f>
-        <v>0.61611445236032358</v>
-      </c>
-      <c r="D26" s="51">
-        <f t="shared" si="1"/>
-        <v>3.0805722618016178</v>
-      </c>
-      <c r="E26" s="51">
-        <f t="shared" si="1"/>
-        <v>112.22084667991606</v>
-      </c>
-      <c r="F26" s="51">
-        <f t="shared" si="1"/>
-        <v>23.104291963512132</v>
-      </c>
-      <c r="G26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
-        <f>SUM(B24:L24)</f>
-        <v>150.42857142857142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="24">
-        <f>C25+D25</f>
-        <v>2.6590693257359931E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3">
-        <v>155</v>
-      </c>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8">
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>41048.822979659075</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="67">
-        <f>B31*B28*B17*24</f>
-        <v>24.729344729344735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="64">
-        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>778951.17702034093</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>45602.177020340925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>1015110.4941978385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
-        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>139.02182535759013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
         <v>1028699.1575216546</v>
       </c>
     </row>
@@ -3041,574 +3619,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="30">
-        <v>2840</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9475</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5150</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <f>B16*1</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <f>C16*34</f>
-        <v>34</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*7</f>
-        <v>7</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0.21</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="31">
-        <v>3600</v>
-      </c>
-      <c r="C18" s="31">
-        <v>390</v>
-      </c>
-      <c r="D18" s="31">
-        <v>1950</v>
-      </c>
-      <c r="E18" s="31">
-        <v>2220</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2220</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <f>40*B4+16*B5</f>
-        <v>265200</v>
-      </c>
-      <c r="D19" s="9">
-        <f>2*B6+10*B7+4*B8+6*B5</f>
-        <v>77470</v>
-      </c>
-      <c r="E19" s="9">
-        <f>20*B9+8*B10+10*B11</f>
-        <v>6959</v>
-      </c>
-      <c r="F19" s="9">
-        <f>20*B9+8*B10+10*B11</f>
-        <v>6959</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="17">
-        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
-        <v>627989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18">
-        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
-        <v>96960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
-        <f>B16/B17</f>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="C24" s="20">
-        <f>1/C17*C16</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D24" s="20">
-        <f>1/D17*D16</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E24" s="20">
-        <f>1/E17*E16</f>
-        <v>121.42857142857142</v>
-      </c>
-      <c r="F24" s="20">
-        <f>1/F17*F16</f>
-        <v>25</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
-        <f>B24/$B$27</f>
-        <v>3.0684258975145751E-2</v>
-      </c>
-      <c r="C25" s="44">
-        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
-        <v>4.2957962565204049E-3</v>
-      </c>
-      <c r="D25" s="44">
-        <f t="shared" si="0"/>
-        <v>2.147898128260203E-2</v>
-      </c>
-      <c r="E25" s="44">
-        <f t="shared" si="0"/>
-        <v>0.78244860386621662</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" si="0"/>
-        <v>0.16109235961951521</v>
-      </c>
-      <c r="G25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
-        <f>B25*$B$42</f>
-        <v>3.6041737457020431</v>
-      </c>
-      <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$42</f>
-        <v>0.50458432439828593</v>
-      </c>
-      <c r="D26" s="51">
-        <f t="shared" si="1"/>
-        <v>2.5229216219914306</v>
-      </c>
-      <c r="E26" s="51">
-        <f t="shared" si="1"/>
-        <v>91.906430515402093</v>
-      </c>
-      <c r="F26" s="51">
-        <f t="shared" si="1"/>
-        <v>18.921912164935726</v>
-      </c>
-      <c r="G26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
-        <f>SUM(B24:L24)</f>
-        <v>155.19047619047618</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="24">
-        <f>B25</f>
-        <v>3.0684258975145751E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3">
-        <v>155.19</v>
-      </c>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>27624.553820780711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="67">
-        <f>B31*B28*B17*24</f>
-        <v>23.999926357778456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="64">
-        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>772375.44617921929</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>47426.446179219289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>662987.25736522325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
-        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>117.46002237242958</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>739264.06978487538</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3618,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,36 +3962,36 @@
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>603128</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="65">
         <f>D18*$B$31/200+D19</f>
         <v>2763.0472725</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="65">
         <f t="shared" ref="E20:L20" si="0">E18*$B$31/200+E19</f>
         <v>9136.0131710000005</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="65">
         <f t="shared" si="0"/>
         <v>8680.6090000000004</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65">
         <f t="shared" si="0"/>
         <v>9136.0131710000005</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="65">
         <f t="shared" si="0"/>
         <v>8680.6090000000004</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3994,7 +4004,7 @@
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>115445.96</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4096,35 +4106,35 @@
       </c>
       <c r="B26" s="50">
         <f>B25*$B$42</f>
-        <v>2.7501134412382089</v>
+        <v>3.3682652387988292</v>
       </c>
       <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="3">C25*$B$42</f>
-        <v>0.38501588177334922</v>
+        <f>C25*$B$42</f>
+        <v>0.47155713343183608</v>
       </c>
       <c r="D26" s="51">
-        <f t="shared" si="3"/>
-        <v>15.40063527093397</v>
+        <f t="shared" ref="D26:L26" si="3">D25*$B$42</f>
+        <v>18.862285337273445</v>
       </c>
       <c r="E26" s="51">
         <f t="shared" si="3"/>
-        <v>2.0488650027850071</v>
+        <v>2.5093949450918109</v>
       </c>
       <c r="F26" s="51">
         <f t="shared" si="3"/>
-        <v>70.127892751574322</v>
+        <v>85.890763589370138</v>
       </c>
       <c r="G26" s="51">
         <f t="shared" si="3"/>
-        <v>1.9250794088667462</v>
+        <v>2.3577856671591806</v>
       </c>
       <c r="H26" s="51">
         <f t="shared" si="3"/>
-        <v>0.76832437604437775</v>
+        <v>0.94102310440942916</v>
       </c>
       <c r="I26" s="51">
         <f t="shared" si="3"/>
-        <v>14.438095566500593</v>
+        <v>17.683392503693849</v>
       </c>
       <c r="J26" s="51">
         <f t="shared" si="3"/>
@@ -4134,7 +4144,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4164,14 +4174,14 @@
       <c r="B31" s="3">
         <v>155.19</v>
       </c>
-      <c r="E31" s="65"/>
+      <c r="E31" s="64"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="8">
-        <v>800000</v>
+        <v>820000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,14 +4206,14 @@
       </c>
       <c r="B35" s="17">
         <f>B32-B37</f>
-        <v>24957.479680813616</v>
+        <v>44957.479680813616</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <f>B31*B28*B17*24</f>
         <v>19.945677980333251</v>
       </c>
@@ -4212,7 +4222,7 @@
       <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
         <v>775042.52031918638</v>
       </c>
@@ -4232,7 +4242,7 @@
       </c>
       <c r="B39" s="27">
         <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>497793.85291421867</v>
+        <v>896707.4125208836</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,7 +4251,7 @@
       </c>
       <c r="B42" s="42">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>107.84402169971658</v>
+        <v>132.08446751922853</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4250,7 +4260,7 @@
       </c>
       <c r="B43" s="27">
         <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>616646.99199138768</v>
+        <v>925013.27746525418</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -4279,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,6 +4328,555 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="30">
+        <v>4740</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1520</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>8*B16</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <f>1*B16</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16*8</f>
+        <v>8</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1.84</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>6402.57</v>
+      </c>
+      <c r="C18" s="31">
+        <v>206.61</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1109.5899999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <v>206.61</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
+        <f>4*B4+2*B5</f>
+        <v>22000</v>
+      </c>
+      <c r="C19" s="9">
+        <f>4*B6+3*B7+0.0625*B8</f>
+        <v>459.7</v>
+      </c>
+      <c r="D19" s="9">
+        <f>30*B9+15*B7</f>
+        <v>2673</v>
+      </c>
+      <c r="E19" s="9">
+        <f>4*B6+3*B7+0.0625*B8</f>
+        <v>459.7</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <f>SUMPRODUCT(B19:L19,B16:L16)</f>
+        <v>32028.199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18">
+        <f>SUMPRODUCT(B18:L18,B16:L16)</f>
+        <v>10817.919999999998</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="48">
+        <f>1/B17</f>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="C24" s="20">
+        <f>8/C17</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="D24" s="20">
+        <f>D16/D17</f>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="E24" s="20">
+        <f>E16/E17</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49">
+        <f>B24/$B$27</f>
+        <v>0.46447890371438882</v>
+      </c>
+      <c r="C25" s="44">
+        <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
+        <v>0.22214208438514246</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" si="0"/>
+        <v>9.123692751532636E-2</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.22214208438514246</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="50">
+        <f>B25*$B$42</f>
+        <v>71.261448200865075</v>
+      </c>
+      <c r="C26" s="51">
+        <f>C25*$B$42</f>
+        <v>34.08156218302242</v>
+      </c>
+      <c r="D26" s="51">
+        <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
+        <v>13.997784468027065</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="1"/>
+        <v>34.08156218302242</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46">
+        <f>SUM(B24:L24)</f>
+        <v>19.572275550536418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="24">
+        <f>B25</f>
+        <v>0.46447890371438882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="17">
+        <f>B32-B37</f>
+        <v>8266.524222100059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="66">
+        <f>B31*B28*B17*24</f>
+        <v>114.03886043995675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="63">
+        <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
+        <v>45733.475777899941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="35">
+        <f>B37-B20-B21</f>
+        <v>2887.3557778999457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="27">
+        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
+        <v>942705.00208759098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="42">
+        <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
+        <v>153.42235703493697</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
+        <v>1115762.2005848682</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="30">
@@ -4540,8 +5099,8 @@
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>3872.07</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4624,15 +5183,15 @@
         <v>57</v>
       </c>
       <c r="B26" s="50">
-        <f>B25*$B$41</f>
-        <v>0</v>
+        <f>B25*$B$42</f>
+        <v>54.608203006501597</v>
       </c>
       <c r="C26" s="51">
-        <f t="shared" ref="C26:L26" si="1">C25*$B$41</f>
-        <v>0</v>
+        <f>C25*$B$42</f>
+        <v>66.479551486175865</v>
       </c>
       <c r="D26" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
         <v>0</v>
       </c>
       <c r="E26" s="51">
@@ -4663,7 +5222,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4731,7 +5290,7 @@
       <c r="A36" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <f>B31*B28*B17*24</f>
         <v>281.84470588235297</v>
       </c>
@@ -4740,7 +5299,7 @@
       <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
         <v>8935.944428257284</v>
       </c>
@@ -4788,12 +5347,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,7 +5448,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4897,7 +5456,7 @@
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4905,7 +5464,7 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="54">
         <v>1</v>
       </c>
     </row>
@@ -4913,7 +5472,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -4921,7 +5480,7 @@
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="56">
         <v>2219.19</v>
       </c>
     </row>
@@ -4929,7 +5488,7 @@
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="57">
         <f>20*B4+8*B5+10*B6</f>
         <v>7518</v>
       </c>
@@ -4938,7 +5497,7 @@
       <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="58">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>7518</v>
       </c>
@@ -4947,7 +5506,7 @@
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="59">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>2219.19</v>
       </c>
@@ -4973,12 +5532,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="62">
-        <f>B25*$B$41</f>
-        <v>0</v>
+      <c r="B26" s="61">
+        <f>B25*$B$42</f>
+        <v>94.877063599435274</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4994,13 +5553,13 @@
       <c r="A28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <f>B25</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="66"/>
+      <c r="E30" s="65"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
@@ -5047,7 +5606,7 @@
       <c r="A36" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <f>B31*B28*B17*24</f>
         <v>336.00000000000006</v>
       </c>
@@ -5056,7 +5615,7 @@
       <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
         <v>10059.775876696833</v>
       </c>
@@ -5105,12 +5664,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5206,7 +5765,7 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5214,7 +5773,7 @@
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5222,7 +5781,7 @@
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="54">
         <v>1</v>
       </c>
     </row>
@@ -5230,7 +5789,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>1.84</v>
       </c>
     </row>
@@ -5238,7 +5797,7 @@
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="56">
         <v>206.61</v>
       </c>
     </row>
@@ -5246,7 +5805,7 @@
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="57">
         <f>4*B4+3*B5+0.0625*B6</f>
         <v>454.05</v>
       </c>
@@ -5255,7 +5814,7 @@
       <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="58">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>454.05</v>
       </c>
@@ -5264,7 +5823,7 @@
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="59">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>206.61</v>
       </c>
@@ -5290,12 +5849,12 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="62">
-        <f>B25*$B$41</f>
-        <v>0</v>
+      <c r="B26" s="61">
+        <f>B25*$B$42</f>
+        <v>103.51946997874104</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5870,7 @@
       <c r="A28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <f>B25</f>
         <v>1</v>
       </c>
@@ -5361,7 +5920,7 @@
       <c r="A36" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="66">
         <f>B31*B28*B17*24</f>
         <v>4416</v>
       </c>
@@ -5370,7 +5929,7 @@
       <c r="A37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="63">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
         <v>720.97330951072013</v>
       </c>
@@ -5410,546 +5969,6 @@
       <c r="B43" s="27">
         <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
         <v>349385.7110187303</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="30">
-        <v>2840</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9475</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5150</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="8">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <f>B17*1</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="33">
-        <v>0.21</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="31">
-        <v>3600</v>
-      </c>
-      <c r="C19" s="31">
-        <v>390</v>
-      </c>
-      <c r="D19" s="31">
-        <v>1950</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <f>40*B4+16*B5+34*B9</f>
-        <v>639200</v>
-      </c>
-      <c r="D20" s="9">
-        <f>2*B6+10*B7+4*B8+6*B5+7*B9</f>
-        <v>154470</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="17">
-        <f>SUMPRODUCT(B20:L20,B17:L17)</f>
-        <v>793670</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="18">
-        <f>SUMPRODUCT(B19:L19,B17:L17)</f>
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="48">
-        <f>B17/B18</f>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="C25" s="20">
-        <f>1/C18*C17</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D25" s="20">
-        <f>1/D18*D17</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="49">
-        <f>B25/$B$28</f>
-        <v>0.54347826086956519</v>
-      </c>
-      <c r="C26" s="44">
-        <f t="shared" ref="C26:L26" si="0">C25/$B$28</f>
-        <v>7.6086956521739121E-2</v>
-      </c>
-      <c r="D26" s="44">
-        <f t="shared" si="0"/>
-        <v>0.38043478260869562</v>
-      </c>
-      <c r="E26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="50">
-        <f>B26*$B$42</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="51">
-        <f t="shared" ref="C27:L27" si="1">C26*$B$42</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="46">
-        <f>SUM(B25:L25)</f>
-        <v>8.7619047619047628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="24">
-        <f>B26</f>
-        <v>0.54347826086956519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="3">
-        <v>85</v>
-      </c>
-      <c r="E32" s="65"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="8">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="25">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="17">
-        <f>B33-B38</f>
-        <v>-1025.6074766354868</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="67">
-        <f>B32*B29*B18*24</f>
-        <v>232.82608695652172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="64">
-        <f>B21+B22*(1+B32/170*(1-B35))/(1+B34)</f>
-        <v>801025.60747663549</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="35">
-        <f>B38-B21-B22</f>
-        <v>1415.6074766354868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="27">
-        <f>(B33-B21-(B32*(1-B35)/170+1)*B22/(1+B34))*B32*B29*B18*24</f>
-        <v>-238788.17553839879</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="42">
-        <f>((B33-B21)*(1+B34)/B22-1)*170/2/(1-B35)</f>
-        <v>18.340714840714845</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="27">
-        <f>(B33-B21-((B43*(1-B35)/170+1)*B22/(1+B34)))*B43*B29*B18*24</f>
-        <v>19557.454706001019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalBuildingLevel.xlsx
+++ b/OptimalBuildingLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BFR-OB-ST" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="91">
   <si>
     <t>Alphas</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>(Rp) Retail price, of the final product</t>
-  </si>
-  <si>
     <t>(Bl) Building level</t>
   </si>
   <si>
@@ -301,15 +298,22 @@
   </si>
   <si>
     <t xml:space="preserve">Maybe having a hybrid model. Something between producing our own RE and also buying the rest of them </t>
+  </si>
+  <si>
+    <t>(Sp) Selling price, of the final product</t>
+  </si>
+  <si>
+    <t>(Ro) Robots; 1 or 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -577,7 +581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -619,6 +622,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="3" builtinId="3"/>
@@ -643,20 +647,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1107622</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>262978</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>176962</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140977</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -669,84 +673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5271408" y="8022772"/>
-          <a:ext cx="2597963" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>405309</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7315200"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>138353</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47570</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5067300" y="7781925"/>
-          <a:ext cx="3523809" cy="438095"/>
+          <a:off x="5306786" y="7769679"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,20 +690,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31656</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154584</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -788,84 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="8058150"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>418916</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7315200"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161485</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076825" y="7839075"/>
-          <a:ext cx="3523809" cy="438095"/>
+          <a:off x="5320393" y="7756071"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,20 +733,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>467085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>363794</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -907,84 +759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="8248650"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609415</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7505700"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371034</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76145</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7810500"/>
-          <a:ext cx="3523809" cy="438095"/>
+          <a:off x="5072063" y="7762875"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,20 +776,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390885</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>69</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277048</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1026,84 +802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="8248650"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>287945</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="7505700"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399609</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95195</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5019675" y="7829550"/>
-          <a:ext cx="3523809" cy="438095"/>
+          <a:off x="5007429" y="7756071"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,20 +819,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361412</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
+      <xdr:rowOff>104714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1145,84 +845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4991100" y="7553325"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590365</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076825" y="7000875"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>332934</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057775" y="7277100"/>
-          <a:ext cx="3523809" cy="438095"/>
+          <a:off x="5067300" y="7791450"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1238,20 +862,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361412</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>85794</xdr:rowOff>
+      <xdr:rowOff>104714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1264,160 +888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="7743825"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>580840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85688</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="6991350"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="7743825"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590365</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076825" y="7000875"/>
-          <a:ext cx="1476190" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342459</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114245</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5067300" y="7258050"/>
-          <a:ext cx="3523809" cy="438095"/>
+          <a:off x="5067300" y="7791450"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1433,20 +905,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152887</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57224</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>346595</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1459,84 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676900" y="7315200"/>
-          <a:ext cx="3486637" cy="533474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419460</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="7743825"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>580840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85688</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="6991350"/>
-          <a:ext cx="1476190" cy="295238"/>
+          <a:off x="5842000" y="7789333"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,20 +948,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200512</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>74</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360292</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1578,84 +974,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962525" y="7258050"/>
-          <a:ext cx="3486637" cy="533474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>448035</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66744</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5019675" y="7743825"/>
-          <a:ext cx="2581635" cy="495369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590365</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19013</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076825" y="6924675"/>
-          <a:ext cx="1476190" cy="295238"/>
+          <a:off x="5076265" y="7003676"/>
+          <a:ext cx="4304762" cy="485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,36 +1270,36 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>2840</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1988,10 +1308,10 @@
       <c r="B5" s="8">
         <v>9475</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2000,10 +1320,10 @@
       <c r="B6" s="8">
         <v>5150</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2015,7 +1335,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
         <v>1480</v>
@@ -2023,7 +1343,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8">
         <v>11300</v>
@@ -2034,7 +1354,7 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2042,37 +1362,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2083,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2099,7 +1419,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -2120,52 +1440,52 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>0.21</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1.5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>0.3</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>3600</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>390</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>1950</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -2193,7 +1513,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
@@ -2202,7 +1522,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
@@ -2213,9 +1533,9 @@
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
         <f>B16/B17</f>
         <v>4.7619047619047619</v>
       </c>
@@ -2236,119 +1556,119 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
         <f>B24/$B$27</f>
         <v>0.54347826086956519</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="43">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>7.6086956521739121E-2</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="0"/>
         <v>0.38043478260869562</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="49">
         <f>B25*$B$42</f>
-        <v>108.54482675134848</v>
-      </c>
-      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
         <f>C25*$B$42</f>
-        <v>15.196275745188785</v>
-      </c>
-      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
         <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
-        <v>75.981378725943927</v>
-      </c>
-      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
+        <v>21</v>
+      </c>
+      <c r="B27" s="45">
         <f>SUM(B24:L24)</f>
         <v>8.7619047619047628</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>B25</f>
@@ -2357,16 +1677,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>70</v>
-      </c>
-      <c r="E31" s="64"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <v>820000</v>
@@ -2374,102 +1694,110 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>6992.7817482133396</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>191.73913043478257</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>6780.522264980711</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>219.13043478260869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>813007.21825178666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>1097.2182517866604</v>
+        <v>813219.47773501929</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>1340789.8917226379</v>
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>1309.477735019289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>1657018.0158072766</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
         <v>199.72248122248121</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>2319176.0723202713</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>2693891.0343158469</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2481,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
+  <dimension ref="A2:M44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,36 +1829,36 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>2840</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2539,10 +1867,10 @@
       <c r="B5" s="8">
         <v>9475</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2551,10 +1879,10 @@
       <c r="B6" s="8">
         <v>5150</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2566,7 +1894,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
         <v>1480</v>
@@ -2589,7 +1917,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="10">
@@ -2601,37 +1929,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2642,16 +1970,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2662,7 +1990,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -2689,60 +2017,60 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>0.21</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1.5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>0.3</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>3600</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>390</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>1950</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>2220</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>2220</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -2776,7 +2104,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
@@ -2785,7 +2113,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
@@ -2796,9 +2124,9 @@
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
         <f>B16/B17</f>
         <v>4.7619047619047619</v>
       </c>
@@ -2825,119 +2153,119 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
         <f>B24/$B$27</f>
         <v>3.0684258975145751E-2</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="43">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>4.2957962565204049E-3</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="0"/>
         <v>2.147898128260203E-2</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0.78244860386621662</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="0"/>
         <v>0.16109235961951521</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="49">
         <f>B25*$B$42</f>
-        <v>4.3445434727165226</v>
-      </c>
-      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
         <f>C25*$B$42</f>
-        <v>0.60823608618031311</v>
-      </c>
-      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
         <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
-        <v>3.0411804309015666</v>
-      </c>
-      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
         <f t="shared" si="1"/>
-        <v>110.78585855427133</v>
-      </c>
-      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
-        <v>22.808853231761745</v>
-      </c>
-      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
+        <v>21</v>
+      </c>
+      <c r="B27" s="45">
         <f>SUM(B24:L24)</f>
         <v>155.19047619047618</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>B25</f>
@@ -2946,16 +2274,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>155.19</v>
-      </c>
-      <c r="E31" s="64"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <v>820000</v>
@@ -2963,81 +2291,90 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>44344.553820780711</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>23.999926357778456</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>70396.09070918092</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>12.371893218778766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>775655.44617921929</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>47426.446179219289</v>
+        <v>749603.90929081908</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>1064266.026067279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>21374.90929081908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>991195.96000170044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
         <v>141.58867177583147</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>1074178.50055261</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>1269318.3029551867</v>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +2389,7 @@
   <dimension ref="A2:M50"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,36 +2406,36 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>2840</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3107,10 +2444,10 @@
       <c r="B5" s="8">
         <v>9475</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3119,10 +2456,10 @@
       <c r="B6" s="8">
         <v>5150</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3134,7 +2471,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
         <v>1480</v>
@@ -3157,7 +2494,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="10">
@@ -3169,37 +2506,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3207,19 +2544,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3230,7 +2567,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -3257,61 +2594,61 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <f>1/(1/C17+1/D17)</f>
         <v>0.25</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1.5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>0.3</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
-        <v>0</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B18" s="30">
+        <v>0</v>
+      </c>
+      <c r="C18" s="30">
         <v>390</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>1950</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>2220</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>2220</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -3345,7 +2682,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
@@ -3354,7 +2691,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
@@ -3365,9 +2702,9 @@
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
         <v>0</v>
       </c>
       <c r="C24" s="20">
@@ -3393,119 +2730,119 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
         <f>B24/$B$27</f>
         <v>0</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="43">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>4.4317822095599878E-3</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="0"/>
         <v>2.2158911047799941E-2</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0.80721747388414056</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="0"/>
         <v>0.16619183285849953</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="49">
         <f>B25*$B$42</f>
         <v>0</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <f>C25*$B$42</f>
-        <v>0.61611445236032358</v>
-      </c>
-      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
         <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
-        <v>3.0805722618016178</v>
-      </c>
-      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
         <f t="shared" si="1"/>
-        <v>112.22084667991606</v>
-      </c>
-      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
-        <v>23.104291963512132</v>
-      </c>
-      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
+        <v>21</v>
+      </c>
+      <c r="B27" s="45">
         <f>SUM(B24:L24)</f>
         <v>150.42857142857142</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>C25+D25</f>
@@ -3514,16 +2851,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>155</v>
-      </c>
-      <c r="E31" s="64"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <v>820000</v>
@@ -3531,91 +2868,100 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>41048.822979659075</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>24.729344729344735</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>66069.713578889496</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>12.763532763532767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>778951.17702034093</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>45602.177020340925</v>
+        <v>753930.2864211105</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>1015110.4941978385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>20581.286421110504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>961101.08652499178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
         <v>139.02182535759013</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>1028699.1575216546</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>1216888.0477749237</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +2975,7 @@
   <dimension ref="A2:M51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,60 +2995,60 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="30">
+        <v>79</v>
+      </c>
+      <c r="B4" s="29">
         <v>61.5</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="8">
         <v>18.2</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="8">
         <v>32.5</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3730,15 +3076,15 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="8">
         <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>59</v>
+      <c r="A11" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="10">
         <v>1580</v>
@@ -3749,37 +3095,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3790,25 +3136,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3816,7 +3162,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -3849,72 +3195,72 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>0.21</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1.5</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>1.5</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>4.51</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>0.3</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>4.51</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>3600</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>390</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>390.55</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>130.18</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>2220</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="30">
         <v>1950</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <v>130.18</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="30">
         <v>2220</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -3956,63 +3302,63 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>603128</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <f>D18*$B$31/200+D19</f>
-        <v>2763.0472725</v>
-      </c>
-      <c r="E20" s="65">
+        <v>2616.2199999999998</v>
+      </c>
+      <c r="E20" s="64">
         <f t="shared" ref="E20:L20" si="0">E18*$B$31/200+E19</f>
-        <v>9136.0131710000005</v>
-      </c>
-      <c r="F20" s="65">
+        <v>9087.0720000000001</v>
+      </c>
+      <c r="F20" s="64">
         <f t="shared" si="0"/>
-        <v>8680.6090000000004</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65">
+        <v>7846</v>
+      </c>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64">
         <f t="shared" si="0"/>
-        <v>9136.0131710000005</v>
-      </c>
-      <c r="I20" s="65">
+        <v>9087.0720000000001</v>
+      </c>
+      <c r="I20" s="64">
         <f t="shared" si="0"/>
-        <v>8680.6090000000004</v>
-      </c>
-      <c r="J20" s="65">
+        <v>7846</v>
+      </c>
+      <c r="J20" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>115445.96</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
         <f t="shared" ref="B24:I24" si="1">B16/B17</f>
         <v>4.7619047619047619</v>
       </c>
@@ -4048,119 +3394,119 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
         <f>B24/$B$27</f>
         <v>2.5500842771755017E-2</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="43">
         <f t="shared" ref="C25:L25" si="2">C24/$B$27</f>
         <v>3.5701179880457024E-3</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="2"/>
         <v>0.14280471952182811</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="2"/>
         <v>1.8998410579400635E-2</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="2"/>
         <v>0.65027149067975287</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <f t="shared" si="2"/>
         <v>1.7850589940228513E-2</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <f t="shared" si="2"/>
         <v>7.1244039672752387E-3</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="2"/>
         <v>0.13387942455171381</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="49">
         <f>B25*$B$42</f>
-        <v>3.3682652387988292</v>
-      </c>
-      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
         <f>C25*$B$42</f>
-        <v>0.47155713343183608</v>
-      </c>
-      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
         <f t="shared" ref="D26:L26" si="3">D25*$B$42</f>
-        <v>18.862285337273445</v>
-      </c>
-      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
         <f t="shared" si="3"/>
-        <v>2.5093949450918109</v>
-      </c>
-      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
         <f t="shared" si="3"/>
-        <v>85.890763589370138</v>
-      </c>
-      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
         <f t="shared" si="3"/>
-        <v>2.3577856671591806</v>
-      </c>
-      <c r="H26" s="51">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
         <f t="shared" si="3"/>
-        <v>0.94102310440942916</v>
-      </c>
-      <c r="I26" s="51">
+        <v>0</v>
+      </c>
+      <c r="I26" s="50">
         <f t="shared" si="3"/>
-        <v>17.683392503693849</v>
-      </c>
-      <c r="J26" s="51">
+        <v>0</v>
+      </c>
+      <c r="J26" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
+        <v>21</v>
+      </c>
+      <c r="B27" s="45">
         <f>SUM(B24:L24)</f>
         <v>186.73519163763066</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>B25</f>
@@ -4169,16 +3515,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>155.19</v>
-      </c>
-      <c r="E31" s="64"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="63"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <v>820000</v>
@@ -4186,96 +3532,105 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>44957.479680813616</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>19.945677980333251</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>75975.886091258959</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>10.281939805571621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>775042.52031918638</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>56468.560319186377</v>
+        <v>744024.11390874104</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>896707.4125208836</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>25450.153908741035</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>894113.60199200758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
         <v>132.08446751922853</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>925013.27746525418</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>1097649.4911487694</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4287,10 +3642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
+  <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,64 +3662,64 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="30">
+        <v>57</v>
+      </c>
+      <c r="B4" s="29">
         <v>4740</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8">
         <v>1520</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8">
         <v>7.4</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
         <v>14.2</v>
@@ -4372,7 +3727,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8">
         <v>6200</v>
@@ -4380,7 +3735,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="8">
         <v>82</v>
@@ -4391,7 +3746,7 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4399,37 +3754,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4437,16 +3792,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4458,7 +3813,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -4483,56 +3838,56 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>0.11</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1.84</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>1.84</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>6402.57</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>206.61</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="30">
         <v>1109.5899999999999</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>206.61</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -4564,7 +3919,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
@@ -4573,22 +3928,22 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>10817.919999999998</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
         <f>1/B17</f>
         <v>9.0909090909090917</v>
       </c>
@@ -4612,119 +3967,119 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
         <f>B24/$B$27</f>
         <v>0.46447890371438882</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="43">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>0.22214208438514246</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="0"/>
         <v>9.123692751532636E-2</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0.22214208438514246</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="49">
         <f>B25*$B$42</f>
-        <v>71.261448200865075</v>
-      </c>
-      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
         <f>C25*$B$42</f>
-        <v>34.08156218302242</v>
-      </c>
-      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
         <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
-        <v>13.997784468027065</v>
-      </c>
-      <c r="E26" s="51">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
         <f t="shared" si="1"/>
-        <v>34.08156218302242</v>
-      </c>
-      <c r="F26" s="51">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
+        <v>21</v>
+      </c>
+      <c r="B27" s="45">
         <f>SUM(B24:L24)</f>
         <v>19.572275550536418</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>B25</f>
@@ -4733,98 +4088,106 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
-        <v>54000</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>8266.524222100059</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>114.03886043995675</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>7769.0609125893388</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>98.097944464478928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>45733.475777899941</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>2887.3557778999457</v>
+        <v>45230.939087410661</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>942705.00208759098</v>
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>2384.8190874106658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>867892.10305349482</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>153.42235703493697</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>1115762.2005848682</v>
+        <v>140.48797806716163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>1106026.3428338205</v>
       </c>
     </row>
   </sheetData>
@@ -4836,10 +4199,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
+  <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,64 +4219,64 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>10.9</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="8">
         <v>18</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8">
         <v>7.4</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
         <v>14.4</v>
@@ -4921,7 +4284,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8">
         <v>6100</v>
@@ -4936,7 +4299,7 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4944,37 +4307,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4982,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -4999,7 +4362,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -5017,48 +4380,48 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1.84</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>2219.19</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>206.61</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -5084,7 +4447,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
@@ -5093,22 +4456,22 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="18">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>3872.07</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="48">
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
         <f>1/B17</f>
         <v>3.5714285714285712</v>
       </c>
@@ -5126,119 +4489,119 @@
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49">
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
         <f>B24/$B$27</f>
         <v>0.45098039215686275</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="43">
         <f t="shared" ref="C25:L25" si="0">C24/$B$27</f>
         <v>0.5490196078431373</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="50">
+      <c r="A26" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="49">
         <f>B25*$B$42</f>
-        <v>54.608203006501597</v>
-      </c>
-      <c r="C26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="50">
         <f>C25*$B$42</f>
-        <v>66.479551486175865</v>
-      </c>
-      <c r="D26" s="51">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
         <f t="shared" ref="D26:L26" si="1">D25*$B$42</f>
         <v>0</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="46">
+        <v>21</v>
+      </c>
+      <c r="B27" s="45">
         <f>SUM(B24:L24)</f>
         <v>7.9192546583850927</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="24">
         <f>B25</f>
@@ -5247,98 +4610,106 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
-        <v>11000</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>2064.055571742716</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>281.84470588235297</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>2443.9290819131402</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>242.44705882352946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>8935.944428257284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>1033.4744282572842</v>
+        <v>8756.0709180868598</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>581743.13554265804</v>
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>853.60091808686002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>679936.34336714144</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>121.08775449267745</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>614824.60796923423</v>
+        <v>128.31505549307653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>820760.67701665103</v>
       </c>
     </row>
   </sheetData>
@@ -5349,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5369,36 +4740,36 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>10.9</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5407,22 +4778,22 @@
       <c r="B5" s="8">
         <v>890</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="8">
         <v>18</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5441,30 +4812,30 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>21</v>
+      <c r="B14" s="51" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>69</v>
+      <c r="B15" s="52" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="54">
+        <v>18</v>
+      </c>
+      <c r="B16" s="53">
         <v>1</v>
       </c>
     </row>
@@ -5472,7 +4843,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="54">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -5480,7 +4851,7 @@
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="55">
         <v>2219.19</v>
       </c>
     </row>
@@ -5488,25 +4859,25 @@
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="56">
         <f>20*B4+8*B5+10*B6</f>
         <v>7518</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="58">
+        <v>39</v>
+      </c>
+      <c r="B20" s="57">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>7518</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="59">
+        <v>42</v>
+      </c>
+      <c r="B21" s="58">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>2219.19</v>
       </c>
@@ -5515,7 +4886,7 @@
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="21">
         <f>B16/B17</f>
@@ -5524,54 +4895,54 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="45">
+        <v>23</v>
+      </c>
+      <c r="B25" s="44">
         <f>B24/$B$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="61">
+      <c r="A26" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="60">
         <f>B25*$B$42</f>
-        <v>94.877063599435274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="41">
+        <v>21</v>
+      </c>
+      <c r="B27" s="40">
         <f>SUM(B24:L24)</f>
         <v>3.5714285714285712</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="62">
+        <v>43</v>
+      </c>
+      <c r="B28" s="61">
         <f>B25</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="65"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <v>11200</v>
@@ -5579,82 +4950,90 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>1140.2241233031673</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>336.00000000000006</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>1266.9991176470594</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>288.96000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>10059.775876696833</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>322.58587669683266</v>
+        <v>9933.0008823529406</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>383115.30542986427</v>
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>195.81088235294055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>419746.29227019649</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
-        <v>94.877063599435274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>493534.28276109399</v>
+        <v>101.38609132160833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>662277.74371064012</v>
       </c>
     </row>
   </sheetData>
@@ -5666,10 +5045,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5686,60 +5065,60 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>50</v>
+      <c r="E2" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="37"/>
+      <c r="E3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="30">
+        <v>60</v>
+      </c>
+      <c r="B4" s="29">
         <v>7.4</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="38"/>
+      <c r="E4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8">
         <v>14.4</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="E5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8">
         <v>6100</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+      <c r="E6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5758,30 +5137,30 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>21</v>
+      <c r="B14" s="51" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>68</v>
+      <c r="B15" s="52" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="54">
+        <v>18</v>
+      </c>
+      <c r="B16" s="53">
         <v>1</v>
       </c>
     </row>
@@ -5789,7 +5168,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="54">
         <v>1.84</v>
       </c>
     </row>
@@ -5797,7 +5176,7 @@
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="55">
         <v>206.61</v>
       </c>
     </row>
@@ -5805,25 +5184,25 @@
       <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="56">
         <f>4*B4+3*B5+0.0625*B6</f>
         <v>454.05</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="58">
+        <v>39</v>
+      </c>
+      <c r="B20" s="57">
         <f>SUMPRODUCT(B19:L19,B16:L16)</f>
         <v>454.05</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="59">
+        <v>42</v>
+      </c>
+      <c r="B21" s="58">
         <f>SUMPRODUCT(B18:L18,B16:L16)</f>
         <v>206.61</v>
       </c>
@@ -5832,7 +5211,7 @@
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="21">
         <f>B16/B17</f>
@@ -5841,51 +5220,51 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="45">
+        <v>23</v>
+      </c>
+      <c r="B25" s="44">
         <f>B24/$B$27</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="61">
-        <f>B25*$B$42</f>
+      <c r="A26" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="60">
+        <f>B25*$B$43</f>
         <v>103.51946997874104</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="41">
+        <v>21</v>
+      </c>
+      <c r="B27" s="40">
         <f>SUM(B24:L24)</f>
         <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="62">
+        <v>43</v>
+      </c>
+      <c r="B28" s="61">
         <f>B25</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8">
         <v>800</v>
@@ -5893,82 +5272,90 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="25">
+      <c r="B34" s="42">
         <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="17">
-        <f>B32-B37</f>
-        <v>79.026690489279872</v>
+      <c r="A35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="66">
-        <f>B31*B28*B17*24</f>
-        <v>4416</v>
+        <v>48</v>
+      </c>
+      <c r="B36" s="62">
+        <f>B32-B38</f>
+        <v>93.792660802638807</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="63">
+        <v>73</v>
+      </c>
+      <c r="B37" s="65">
+        <f>B31*B28*B17*24</f>
+        <v>3532.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="62">
         <f>B20+B21*(1+B31/170*(1-B34))/(1+B33)</f>
-        <v>720.97330951072013</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="35">
-        <f>B37-B20-B21</f>
-        <v>60.313309510720103</v>
+        <v>706.20733919736119</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="27">
-        <f>(B32-B20-(B31*(1-B34)/170+1)*B21/(1+B33))*B31*B28*B17*24</f>
-        <v>348981.86520065973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42">
+        <v>54</v>
+      </c>
+      <c r="B39" s="34">
+        <f>B38-B20-B21</f>
+        <v>45.547339197361168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B31/170*(1-B34))*(1-B33))*B31*B28*B17/(1-B33)*24</f>
+        <v>389580.03211075539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="41">
         <f>((B32-B20)*(1+B33)/B21-1)*170/2/(1-B34)</f>
         <v>103.51946997874104</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="27">
-        <f>(B32-B20-((B42*(1-B34)/170+1)*B21/(1+B33)))*B42*B28*B17*24</f>
-        <v>349385.7110187303</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26">
+        <f>(B32-B20-B21*(1-0.03*B35)*(1+B43/170*(1-B34))*(1-B33))*B43*B28*B17/(1-B33)*24</f>
+        <v>421725.56656573876</v>
       </c>
     </row>
   </sheetData>
